--- a/resultados/pretratamiento-tablas/pretrat-francia-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas/pretrat-francia-elo-dificil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="673">
   <si>
     <t>Pretrat</t>
   </si>
@@ -82,6 +82,1968 @@
   </si>
   <si>
     <t>promoccup_ant_5</t>
+  </si>
+  <si>
+    <t>54.17 (88)</t>
+  </si>
+  <si>
+    <t>48.614 (88)</t>
+  </si>
+  <si>
+    <t>51.273 (88)</t>
+  </si>
+  <si>
+    <t>50.455 (88)</t>
+  </si>
+  <si>
+    <t>51.58 (88)</t>
+  </si>
+  <si>
+    <t>9.557 (88)</t>
+  </si>
+  <si>
+    <t>10.807 (88)</t>
+  </si>
+  <si>
+    <t>10.489 (88)</t>
+  </si>
+  <si>
+    <t>11.591 (88)</t>
+  </si>
+  <si>
+    <t>11.148 (88)</t>
+  </si>
+  <si>
+    <t>0.701 (88)</t>
+  </si>
+  <si>
+    <t>0.707 (88)</t>
+  </si>
+  <si>
+    <t>0.705 (88)</t>
+  </si>
+  <si>
+    <t>0.713 (88)</t>
+  </si>
+  <si>
+    <t>0.729 (88)</t>
+  </si>
+  <si>
+    <t>50.827 (104)</t>
+  </si>
+  <si>
+    <t>45.596 (104)</t>
+  </si>
+  <si>
+    <t>47.019 (104)</t>
+  </si>
+  <si>
+    <t>48.327 (104)</t>
+  </si>
+  <si>
+    <t>46.923 (104)</t>
+  </si>
+  <si>
+    <t>10.865 (104)</t>
+  </si>
+  <si>
+    <t>12.058 (104)</t>
+  </si>
+  <si>
+    <t>12.404 (104)</t>
+  </si>
+  <si>
+    <t>12.308 (104)</t>
+  </si>
+  <si>
+    <t>13.135 (104)</t>
+  </si>
+  <si>
+    <t>0.692 (104)</t>
+  </si>
+  <si>
+    <t>0.704 (104)</t>
+  </si>
+  <si>
+    <t>0.717 (104)</t>
+  </si>
+  <si>
+    <t>0.719 (104)</t>
+  </si>
+  <si>
+    <t>0.706 (104)</t>
+  </si>
+  <si>
+    <t>46.5 (8)</t>
+  </si>
+  <si>
+    <t>47.625 (8)</t>
+  </si>
+  <si>
+    <t>45.25 (8)</t>
+  </si>
+  <si>
+    <t>46.0 (8)</t>
+  </si>
+  <si>
+    <t>47.125 (8)</t>
+  </si>
+  <si>
+    <t>12.375 (8)</t>
+  </si>
+  <si>
+    <t>11.625 (8)</t>
+  </si>
+  <si>
+    <t>13.5 (8)</t>
+  </si>
+  <si>
+    <t>13.25 (8)</t>
+  </si>
+  <si>
+    <t>0.712 (8)</t>
+  </si>
+  <si>
+    <t>0.735 (8)</t>
+  </si>
+  <si>
+    <t>0.75 (8)</t>
+  </si>
+  <si>
+    <t>0.719 (8)</t>
+  </si>
+  <si>
+    <t>0.697 (8)</t>
+  </si>
+  <si>
+    <t>54.375 (72)</t>
+  </si>
+  <si>
+    <t>49.056 (72)</t>
+  </si>
+  <si>
+    <t>51.444 (72)</t>
+  </si>
+  <si>
+    <t>50.556 (72)</t>
+  </si>
+  <si>
+    <t>51.347 (72)</t>
+  </si>
+  <si>
+    <t>9.611 (72)</t>
+  </si>
+  <si>
+    <t>10.833 (72)</t>
+  </si>
+  <si>
+    <t>10.5 (72)</t>
+  </si>
+  <si>
+    <t>11.736 (72)</t>
+  </si>
+  <si>
+    <t>11.458 (72)</t>
+  </si>
+  <si>
+    <t>0.699 (72)</t>
+  </si>
+  <si>
+    <t>0.711 (72)</t>
+  </si>
+  <si>
+    <t>0.705 (72)</t>
+  </si>
+  <si>
+    <t>0.71 (72)</t>
+  </si>
+  <si>
+    <t>0.727 (72)</t>
+  </si>
+  <si>
+    <t>51.421 (107)</t>
+  </si>
+  <si>
+    <t>46.692 (107)</t>
+  </si>
+  <si>
+    <t>48.346 (107)</t>
+  </si>
+  <si>
+    <t>49.056 (107)</t>
+  </si>
+  <si>
+    <t>48.458 (107)</t>
+  </si>
+  <si>
+    <t>10.626 (107)</t>
+  </si>
+  <si>
+    <t>11.551 (107)</t>
+  </si>
+  <si>
+    <t>11.748 (107)</t>
+  </si>
+  <si>
+    <t>11.869 (107)</t>
+  </si>
+  <si>
+    <t>12.252 (107)</t>
+  </si>
+  <si>
+    <t>0.696 (107)</t>
+  </si>
+  <si>
+    <t>0.704 (107)</t>
+  </si>
+  <si>
+    <t>0.717 (107)</t>
+  </si>
+  <si>
+    <t>0.72 (107)</t>
+  </si>
+  <si>
+    <t>0.711 (107)</t>
+  </si>
+  <si>
+    <t>47.6 (20)</t>
+  </si>
+  <si>
+    <t>40.1 (20)</t>
+  </si>
+  <si>
+    <t>41.25 (20)</t>
+  </si>
+  <si>
+    <t>43.55 (20)</t>
+  </si>
+  <si>
+    <t>41.9 (20)</t>
+  </si>
+  <si>
+    <t>11.65 (20)</t>
+  </si>
+  <si>
+    <t>13.95 (20)</t>
+  </si>
+  <si>
+    <t>15.1 (20)</t>
+  </si>
+  <si>
+    <t>14.4 (20)</t>
+  </si>
+  <si>
+    <t>15.9 (20)</t>
+  </si>
+  <si>
+    <t>0.692 (20)</t>
+  </si>
+  <si>
+    <t>0.701 (20)</t>
+  </si>
+  <si>
+    <t>0.715 (20)</t>
+  </si>
+  <si>
+    <t>0.702 (20)</t>
+  </si>
+  <si>
+    <t>56.0 (1)</t>
+  </si>
+  <si>
+    <t>71.0 (1)</t>
+  </si>
+  <si>
+    <t>62.0 (1)</t>
+  </si>
+  <si>
+    <t>74.0 (1)</t>
+  </si>
+  <si>
+    <t>76.0 (1)</t>
+  </si>
+  <si>
+    <t>8.0 (1)</t>
+  </si>
+  <si>
+    <t>3.0 (1)</t>
+  </si>
+  <si>
+    <t>6.0 (1)</t>
+  </si>
+  <si>
+    <t>1.0 (1)</t>
+  </si>
+  <si>
+    <t>0.728 (1)</t>
+  </si>
+  <si>
+    <t>0.77 (1)</t>
+  </si>
+  <si>
+    <t>0.815 (1)</t>
+  </si>
+  <si>
+    <t>0.753 (1)</t>
+  </si>
+  <si>
+    <t>0.729 (1)</t>
+  </si>
+  <si>
+    <t>54.889 (54)</t>
+  </si>
+  <si>
+    <t>50.37 (54)</t>
+  </si>
+  <si>
+    <t>51.667 (54)</t>
+  </si>
+  <si>
+    <t>50.019 (54)</t>
+  </si>
+  <si>
+    <t>49.741 (54)</t>
+  </si>
+  <si>
+    <t>9.296 (54)</t>
+  </si>
+  <si>
+    <t>10.556 (54)</t>
+  </si>
+  <si>
+    <t>10.019 (54)</t>
+  </si>
+  <si>
+    <t>12.019 (54)</t>
+  </si>
+  <si>
+    <t>0.703 (54)</t>
+  </si>
+  <si>
+    <t>0.719 (54)</t>
+  </si>
+  <si>
+    <t>0.716 (54)</t>
+  </si>
+  <si>
+    <t>0.74 (54)</t>
+  </si>
+  <si>
+    <t>52.044 (113)</t>
+  </si>
+  <si>
+    <t>47.053 (113)</t>
+  </si>
+  <si>
+    <t>48.965 (113)</t>
+  </si>
+  <si>
+    <t>50.186 (113)</t>
+  </si>
+  <si>
+    <t>49.619 (113)</t>
+  </si>
+  <si>
+    <t>10.442 (113)</t>
+  </si>
+  <si>
+    <t>11.398 (113)</t>
+  </si>
+  <si>
+    <t>11.681 (113)</t>
+  </si>
+  <si>
+    <t>11.425 (113)</t>
+  </si>
+  <si>
+    <t>11.92 (113)</t>
+  </si>
+  <si>
+    <t>0.692 (113)</t>
+  </si>
+  <si>
+    <t>0.698 (113)</t>
+  </si>
+  <si>
+    <t>0.707 (113)</t>
+  </si>
+  <si>
+    <t>0.711 (113)</t>
+  </si>
+  <si>
+    <t>0.701 (113)</t>
+  </si>
+  <si>
+    <t>47.625 (32)</t>
+  </si>
+  <si>
+    <t>40.406 (32)</t>
+  </si>
+  <si>
+    <t>43.094 (32)</t>
+  </si>
+  <si>
+    <t>43.375 (32)</t>
+  </si>
+  <si>
+    <t>44.594 (32)</t>
+  </si>
+  <si>
+    <t>11.875 (32)</t>
+  </si>
+  <si>
+    <t>13.656 (32)</t>
+  </si>
+  <si>
+    <t>14.188 (32)</t>
+  </si>
+  <si>
+    <t>14.469 (32)</t>
+  </si>
+  <si>
+    <t>14.312 (32)</t>
+  </si>
+  <si>
+    <t>0.703 (32)</t>
+  </si>
+  <si>
+    <t>0.714 (32)</t>
+  </si>
+  <si>
+    <t>0.724 (32)</t>
+  </si>
+  <si>
+    <t>0.732 (32)</t>
+  </si>
+  <si>
+    <t>0.726 (32)</t>
+  </si>
+  <si>
+    <t>57.763 (38)</t>
+  </si>
+  <si>
+    <t>51.947 (38)</t>
+  </si>
+  <si>
+    <t>52.553 (38)</t>
+  </si>
+  <si>
+    <t>50.921 (38)</t>
+  </si>
+  <si>
+    <t>51.632 (38)</t>
+  </si>
+  <si>
+    <t>8.316 (38)</t>
+  </si>
+  <si>
+    <t>9.842 (38)</t>
+  </si>
+  <si>
+    <t>9.737 (38)</t>
+  </si>
+  <si>
+    <t>11.632 (38)</t>
+  </si>
+  <si>
+    <t>11.368 (38)</t>
+  </si>
+  <si>
+    <t>0.717 (38)</t>
+  </si>
+  <si>
+    <t>0.734 (38)</t>
+  </si>
+  <si>
+    <t>0.727 (38)</t>
+  </si>
+  <si>
+    <t>0.749 (38)</t>
+  </si>
+  <si>
+    <t>52.27 (115)</t>
+  </si>
+  <si>
+    <t>47.696 (115)</t>
+  </si>
+  <si>
+    <t>49.748 (115)</t>
+  </si>
+  <si>
+    <t>50.33 (115)</t>
+  </si>
+  <si>
+    <t>49.843 (115)</t>
+  </si>
+  <si>
+    <t>10.322 (115)</t>
+  </si>
+  <si>
+    <t>11.252 (115)</t>
+  </si>
+  <si>
+    <t>11.217 (115)</t>
+  </si>
+  <si>
+    <t>11.383 (115)</t>
+  </si>
+  <si>
+    <t>11.722 (115)</t>
+  </si>
+  <si>
+    <t>0.689 (115)</t>
+  </si>
+  <si>
+    <t>0.695 (115)</t>
+  </si>
+  <si>
+    <t>0.701 (115)</t>
+  </si>
+  <si>
+    <t>0.705 (115)</t>
+  </si>
+  <si>
+    <t>0.702 (115)</t>
+  </si>
+  <si>
+    <t>47.022 (46)</t>
+  </si>
+  <si>
+    <t>40.674 (46)</t>
+  </si>
+  <si>
+    <t>43.13 (46)</t>
+  </si>
+  <si>
+    <t>44.283 (46)</t>
+  </si>
+  <si>
+    <t>44.043 (46)</t>
+  </si>
+  <si>
+    <t>12.152 (46)</t>
+  </si>
+  <si>
+    <t>13.63 (46)</t>
+  </si>
+  <si>
+    <t>14.239 (46)</t>
+  </si>
+  <si>
+    <t>14.174 (46)</t>
+  </si>
+  <si>
+    <t>14.652 (46)</t>
+  </si>
+  <si>
+    <t>0.699 (46)</t>
+  </si>
+  <si>
+    <t>0.712 (46)</t>
+  </si>
+  <si>
+    <t>0.728 (46)</t>
+  </si>
+  <si>
+    <t>0.733 (46)</t>
+  </si>
+  <si>
+    <t>0.722 (46)</t>
+  </si>
+  <si>
+    <t>53.5 (62)</t>
+  </si>
+  <si>
+    <t>48.919 (62)</t>
+  </si>
+  <si>
+    <t>51.823 (62)</t>
+  </si>
+  <si>
+    <t>51.629 (62)</t>
+  </si>
+  <si>
+    <t>53.661 (62)</t>
+  </si>
+  <si>
+    <t>10.032 (62)</t>
+  </si>
+  <si>
+    <t>10.597 (62)</t>
+  </si>
+  <si>
+    <t>10.306 (62)</t>
+  </si>
+  <si>
+    <t>11.226 (62)</t>
+  </si>
+  <si>
+    <t>10.371 (62)</t>
+  </si>
+  <si>
+    <t>0.698 (62)</t>
+  </si>
+  <si>
+    <t>0.711 (62)</t>
+  </si>
+  <si>
+    <t>0.699 (62)</t>
+  </si>
+  <si>
+    <t>0.73 (62)</t>
+  </si>
+  <si>
+    <t>52.328 (116)</t>
+  </si>
+  <si>
+    <t>46.276 (116)</t>
+  </si>
+  <si>
+    <t>47.819 (116)</t>
+  </si>
+  <si>
+    <t>48.776 (116)</t>
+  </si>
+  <si>
+    <t>47.328 (116)</t>
+  </si>
+  <si>
+    <t>10.147 (116)</t>
+  </si>
+  <si>
+    <t>11.914 (116)</t>
+  </si>
+  <si>
+    <t>12.017 (116)</t>
+  </si>
+  <si>
+    <t>12.034 (116)</t>
+  </si>
+  <si>
+    <t>12.905 (116)</t>
+  </si>
+  <si>
+    <t>0.695 (116)</t>
+  </si>
+  <si>
+    <t>0.701 (116)</t>
+  </si>
+  <si>
+    <t>0.716 (116)</t>
+  </si>
+  <si>
+    <t>0.714 (116)</t>
+  </si>
+  <si>
+    <t>0.707 (116)</t>
+  </si>
+  <si>
+    <t>47.182 (22)</t>
+  </si>
+  <si>
+    <t>45.455 (22)</t>
+  </si>
+  <si>
+    <t>45.636 (22)</t>
+  </si>
+  <si>
+    <t>44.318 (22)</t>
+  </si>
+  <si>
+    <t>44.5 (22)</t>
+  </si>
+  <si>
+    <t>12.318 (22)</t>
+  </si>
+  <si>
+    <t>11.773 (22)</t>
+  </si>
+  <si>
+    <t>13.091 (22)</t>
+  </si>
+  <si>
+    <t>14.273 (22)</t>
+  </si>
+  <si>
+    <t>14.318 (22)</t>
+  </si>
+  <si>
+    <t>0.7 (22)</t>
+  </si>
+  <si>
+    <t>0.723 (22)</t>
+  </si>
+  <si>
+    <t>0.736 (22)</t>
+  </si>
+  <si>
+    <t>0.74 (22)</t>
+  </si>
+  <si>
+    <t>0.72 (22)</t>
+  </si>
+  <si>
+    <t>53.04 (50)</t>
+  </si>
+  <si>
+    <t>49.5 (50)</t>
+  </si>
+  <si>
+    <t>52.22 (50)</t>
+  </si>
+  <si>
+    <t>51.34 (50)</t>
+  </si>
+  <si>
+    <t>54.56 (50)</t>
+  </si>
+  <si>
+    <t>10.16 (50)</t>
+  </si>
+  <si>
+    <t>10.5 (50)</t>
+  </si>
+  <si>
+    <t>10.22 (50)</t>
+  </si>
+  <si>
+    <t>11.58 (50)</t>
+  </si>
+  <si>
+    <t>10.2 (50)</t>
+  </si>
+  <si>
+    <t>0.693 (50)</t>
+  </si>
+  <si>
+    <t>0.718 (50)</t>
+  </si>
+  <si>
+    <t>0.702 (50)</t>
+  </si>
+  <si>
+    <t>0.712 (50)</t>
+  </si>
+  <si>
+    <t>0.725 (50)</t>
+  </si>
+  <si>
+    <t>53.569 (102)</t>
+  </si>
+  <si>
+    <t>47.99 (102)</t>
+  </si>
+  <si>
+    <t>48.971 (102)</t>
+  </si>
+  <si>
+    <t>49.735 (102)</t>
+  </si>
+  <si>
+    <t>48.069 (102)</t>
+  </si>
+  <si>
+    <t>9.775 (102)</t>
+  </si>
+  <si>
+    <t>11.402 (102)</t>
+  </si>
+  <si>
+    <t>11.51 (102)</t>
+  </si>
+  <si>
+    <t>11.451 (102)</t>
+  </si>
+  <si>
+    <t>12.451 (102)</t>
+  </si>
+  <si>
+    <t>0.703 (102)</t>
+  </si>
+  <si>
+    <t>0.706 (102)</t>
+  </si>
+  <si>
+    <t>0.717 (102)</t>
+  </si>
+  <si>
+    <t>0.713 (102)</t>
+  </si>
+  <si>
+    <t>0.71 (102)</t>
+  </si>
+  <si>
+    <t>47.891 (46)</t>
+  </si>
+  <si>
+    <t>41.652 (46)</t>
+  </si>
+  <si>
+    <t>44.5 (46)</t>
+  </si>
+  <si>
+    <t>45.174 (46)</t>
+  </si>
+  <si>
+    <t>44.652 (46)</t>
+  </si>
+  <si>
+    <t>11.891 (46)</t>
+  </si>
+  <si>
+    <t>12.848 (46)</t>
+  </si>
+  <si>
+    <t>13.478 (46)</t>
+  </si>
+  <si>
+    <t>13.935 (46)</t>
+  </si>
+  <si>
+    <t>14.217 (46)</t>
+  </si>
+  <si>
+    <t>0.683 (46)</t>
+  </si>
+  <si>
+    <t>0.692 (46)</t>
+  </si>
+  <si>
+    <t>0.71 (46)</t>
+  </si>
+  <si>
+    <t>0.724 (46)</t>
+  </si>
+  <si>
+    <t>0.719 (46)</t>
+  </si>
+  <si>
+    <t>53.0 (2)</t>
+  </si>
+  <si>
+    <t>57.5 (2)</t>
+  </si>
+  <si>
+    <t>55.5 (2)</t>
+  </si>
+  <si>
+    <t>58.0 (2)</t>
+  </si>
+  <si>
+    <t>9.0 (2)</t>
+  </si>
+  <si>
+    <t>9.5 (2)</t>
+  </si>
+  <si>
+    <t>8.0 (2)</t>
+  </si>
+  <si>
+    <t>10.5 (2)</t>
+  </si>
+  <si>
+    <t>0.774 (2)</t>
+  </si>
+  <si>
+    <t>0.796 (2)</t>
+  </si>
+  <si>
+    <t>0.822 (2)</t>
+  </si>
+  <si>
+    <t>0.793 (2)</t>
+  </si>
+  <si>
+    <t>0.722 (2)</t>
+  </si>
+  <si>
+    <t>54.828 (29)</t>
+  </si>
+  <si>
+    <t>52.448 (29)</t>
+  </si>
+  <si>
+    <t>53.483 (29)</t>
+  </si>
+  <si>
+    <t>51.586 (29)</t>
+  </si>
+  <si>
+    <t>52.517 (29)</t>
+  </si>
+  <si>
+    <t>9.103 (29)</t>
+  </si>
+  <si>
+    <t>9.724 (29)</t>
+  </si>
+  <si>
+    <t>9.31 (29)</t>
+  </si>
+  <si>
+    <t>11.483 (29)</t>
+  </si>
+  <si>
+    <t>10.759 (29)</t>
+  </si>
+  <si>
+    <t>0.709 (29)</t>
+  </si>
+  <si>
+    <t>0.735 (29)</t>
+  </si>
+  <si>
+    <t>0.726 (29)</t>
+  </si>
+  <si>
+    <t>0.729 (29)</t>
+  </si>
+  <si>
+    <t>0.741 (29)</t>
+  </si>
+  <si>
+    <t>53.396 (106)</t>
+  </si>
+  <si>
+    <t>48.057 (106)</t>
+  </si>
+  <si>
+    <t>49.321 (106)</t>
+  </si>
+  <si>
+    <t>50.264 (106)</t>
+  </si>
+  <si>
+    <t>49.585 (106)</t>
+  </si>
+  <si>
+    <t>9.981 (106)</t>
+  </si>
+  <si>
+    <t>11.264 (106)</t>
+  </si>
+  <si>
+    <t>11.472 (106)</t>
+  </si>
+  <si>
+    <t>11.434 (106)</t>
+  </si>
+  <si>
+    <t>12.123 (106)</t>
+  </si>
+  <si>
+    <t>0.696 (106)</t>
+  </si>
+  <si>
+    <t>0.704 (106)</t>
+  </si>
+  <si>
+    <t>0.709 (106)</t>
+  </si>
+  <si>
+    <t>0.707 (106)</t>
+  </si>
+  <si>
+    <t>49.016 (61)</t>
+  </si>
+  <si>
+    <t>42.705 (61)</t>
+  </si>
+  <si>
+    <t>45.77 (61)</t>
+  </si>
+  <si>
+    <t>46.246 (61)</t>
+  </si>
+  <si>
+    <t>11.41 (61)</t>
+  </si>
+  <si>
+    <t>12.689 (61)</t>
+  </si>
+  <si>
+    <t>12.967 (61)</t>
+  </si>
+  <si>
+    <t>13.213 (61)</t>
+  </si>
+  <si>
+    <t>13.23 (61)</t>
+  </si>
+  <si>
+    <t>0.687 (61)</t>
+  </si>
+  <si>
+    <t>0.692 (61)</t>
+  </si>
+  <si>
+    <t>0.706 (61)</t>
+  </si>
+  <si>
+    <t>0.72 (61)</t>
+  </si>
+  <si>
+    <t>0.708 (61)</t>
+  </si>
+  <si>
+    <t>46.25 (4)</t>
+  </si>
+  <si>
+    <t>45.25 (4)</t>
+  </si>
+  <si>
+    <t>48.25 (4)</t>
+  </si>
+  <si>
+    <t>47.25 (4)</t>
+  </si>
+  <si>
+    <t>49.0 (4)</t>
+  </si>
+  <si>
+    <t>13.0 (4)</t>
+  </si>
+  <si>
+    <t>12.0 (4)</t>
+  </si>
+  <si>
+    <t>11.0 (4)</t>
+  </si>
+  <si>
+    <t>13.75 (4)</t>
+  </si>
+  <si>
+    <t>12.75 (4)</t>
+  </si>
+  <si>
+    <t>0.764 (4)</t>
+  </si>
+  <si>
+    <t>0.799 (4)</t>
+  </si>
+  <si>
+    <t>0.811 (4)</t>
+  </si>
+  <si>
+    <t>0.806 (4)</t>
+  </si>
+  <si>
+    <t>0.819 (4)</t>
+  </si>
+  <si>
+    <t>58.45 (20)</t>
+  </si>
+  <si>
+    <t>55.6 (20)</t>
+  </si>
+  <si>
+    <t>54.8 (20)</t>
+  </si>
+  <si>
+    <t>51.65 (20)</t>
+  </si>
+  <si>
+    <t>53.95 (20)</t>
+  </si>
+  <si>
+    <t>7.8 (20)</t>
+  </si>
+  <si>
+    <t>8.85 (20)</t>
+  </si>
+  <si>
+    <t>8.75 (20)</t>
+  </si>
+  <si>
+    <t>11.15 (20)</t>
+  </si>
+  <si>
+    <t>10.1 (20)</t>
+  </si>
+  <si>
+    <t>0.736 (20)</t>
+  </si>
+  <si>
+    <t>0.76 (20)</t>
+  </si>
+  <si>
+    <t>0.742 (20)</t>
+  </si>
+  <si>
+    <t>0.746 (20)</t>
+  </si>
+  <si>
+    <t>0.757 (20)</t>
+  </si>
+  <si>
+    <t>54.091 (88)</t>
+  </si>
+  <si>
+    <t>48.273 (88)</t>
+  </si>
+  <si>
+    <t>49.841 (88)</t>
+  </si>
+  <si>
+    <t>50.966 (88)</t>
+  </si>
+  <si>
+    <t>50.352 (88)</t>
+  </si>
+  <si>
+    <t>9.784 (88)</t>
+  </si>
+  <si>
+    <t>11.136 (88)</t>
+  </si>
+  <si>
+    <t>11.261 (88)</t>
+  </si>
+  <si>
+    <t>11.352 (88)</t>
+  </si>
+  <si>
+    <t>11.784 (88)</t>
+  </si>
+  <si>
+    <t>0.696 (88)</t>
+  </si>
+  <si>
+    <t>0.699 (88)</t>
+  </si>
+  <si>
+    <t>0.702 (88)</t>
+  </si>
+  <si>
+    <t>0.7 (88)</t>
+  </si>
+  <si>
+    <t>0.704 (88)</t>
+  </si>
+  <si>
+    <t>49.298 (84)</t>
+  </si>
+  <si>
+    <t>44.321 (84)</t>
+  </si>
+  <si>
+    <t>46.655 (84)</t>
+  </si>
+  <si>
+    <t>46.798 (84)</t>
+  </si>
+  <si>
+    <t>46.881 (84)</t>
+  </si>
+  <si>
+    <t>11.226 (84)</t>
+  </si>
+  <si>
+    <t>12.167 (84)</t>
+  </si>
+  <si>
+    <t>12.536 (84)</t>
+  </si>
+  <si>
+    <t>12.774 (84)</t>
+  </si>
+  <si>
+    <t>12.988 (84)</t>
+  </si>
+  <si>
+    <t>0.689 (84)</t>
+  </si>
+  <si>
+    <t>0.7 (84)</t>
+  </si>
+  <si>
+    <t>0.712 (84)</t>
+  </si>
+  <si>
+    <t>0.723 (84)</t>
+  </si>
+  <si>
+    <t>0.716 (84)</t>
+  </si>
+  <si>
+    <t>44.375 (8)</t>
+  </si>
+  <si>
+    <t>39.75 (8)</t>
+  </si>
+  <si>
+    <t>45.375 (8)</t>
+  </si>
+  <si>
+    <t>48.125 (8)</t>
+  </si>
+  <si>
+    <t>43.5 (8)</t>
+  </si>
+  <si>
+    <t>13.75 (8)</t>
+  </si>
+  <si>
+    <t>14.875 (8)</t>
+  </si>
+  <si>
+    <t>12.75 (8)</t>
+  </si>
+  <si>
+    <t>13.875 (8)</t>
+  </si>
+  <si>
+    <t>15.625 (8)</t>
+  </si>
+  <si>
+    <t>0.694 (8)</t>
+  </si>
+  <si>
+    <t>0.728 (8)</t>
+  </si>
+  <si>
+    <t>0.763 (8)</t>
+  </si>
+  <si>
+    <t>0.742 (8)</t>
+  </si>
+  <si>
+    <t>0.74 (8)</t>
+  </si>
+  <si>
+    <t>54.851 (47)</t>
+  </si>
+  <si>
+    <t>49.66 (47)</t>
+  </si>
+  <si>
+    <t>52.596 (47)</t>
+  </si>
+  <si>
+    <t>51.851 (47)</t>
+  </si>
+  <si>
+    <t>9.404 (47)</t>
+  </si>
+  <si>
+    <t>10.319 (47)</t>
+  </si>
+  <si>
+    <t>9.745 (47)</t>
+  </si>
+  <si>
+    <t>11.17 (47)</t>
+  </si>
+  <si>
+    <t>10.021 (47)</t>
+  </si>
+  <si>
+    <t>0.711 (47)</t>
+  </si>
+  <si>
+    <t>0.72 (47)</t>
+  </si>
+  <si>
+    <t>0.717 (47)</t>
+  </si>
+  <si>
+    <t>0.727 (47)</t>
+  </si>
+  <si>
+    <t>0.741 (47)</t>
+  </si>
+  <si>
+    <t>52.064 (109)</t>
+  </si>
+  <si>
+    <t>46.752 (109)</t>
+  </si>
+  <si>
+    <t>48.688 (109)</t>
+  </si>
+  <si>
+    <t>49.486 (109)</t>
+  </si>
+  <si>
+    <t>47.798 (109)</t>
+  </si>
+  <si>
+    <t>10.321 (109)</t>
+  </si>
+  <si>
+    <t>11.752 (109)</t>
+  </si>
+  <si>
+    <t>11.651 (109)</t>
+  </si>
+  <si>
+    <t>11.743 (109)</t>
+  </si>
+  <si>
+    <t>12.587 (109)</t>
+  </si>
+  <si>
+    <t>0.688 (109)</t>
+  </si>
+  <si>
+    <t>0.699 (109)</t>
+  </si>
+  <si>
+    <t>0.707 (109)</t>
+  </si>
+  <si>
+    <t>0.703 (109)</t>
+  </si>
+  <si>
+    <t>0.702 (109)</t>
+  </si>
+  <si>
+    <t>49.537 (41)</t>
+  </si>
+  <si>
+    <t>44.878 (41)</t>
+  </si>
+  <si>
+    <t>45.732 (41)</t>
+  </si>
+  <si>
+    <t>46.0 (41)</t>
+  </si>
+  <si>
+    <t>46.415 (41)</t>
+  </si>
+  <si>
+    <t>11.317 (41)</t>
+  </si>
+  <si>
+    <t>12.098 (41)</t>
+  </si>
+  <si>
+    <t>13.244 (41)</t>
+  </si>
+  <si>
+    <t>13.366 (41)</t>
+  </si>
+  <si>
+    <t>13.463 (41)</t>
+  </si>
+  <si>
+    <t>0.707 (41)</t>
+  </si>
+  <si>
+    <t>0.718 (41)</t>
+  </si>
+  <si>
+    <t>0.724 (41)</t>
+  </si>
+  <si>
+    <t>0.735 (41)</t>
+  </si>
+  <si>
+    <t>0.723 (41)</t>
+  </si>
+  <si>
+    <t>47.0 (3)</t>
+  </si>
+  <si>
+    <t>43.667 (3)</t>
+  </si>
+  <si>
+    <t>36.667 (3)</t>
+  </si>
+  <si>
+    <t>39.0 (3)</t>
+  </si>
+  <si>
+    <t>35.0 (3)</t>
+  </si>
+  <si>
+    <t>13.0 (3)</t>
+  </si>
+  <si>
+    <t>12.0 (3)</t>
+  </si>
+  <si>
+    <t>16.667 (3)</t>
+  </si>
+  <si>
+    <t>17.667 (3)</t>
+  </si>
+  <si>
+    <t>20.0 (3)</t>
+  </si>
+  <si>
+    <t>0.638 (3)</t>
+  </si>
+  <si>
+    <t>0.642 (3)</t>
+  </si>
+  <si>
+    <t>0.718 (3)</t>
+  </si>
+  <si>
+    <t>0.745 (3)</t>
+  </si>
+  <si>
+    <t>0.716 (3)</t>
+  </si>
+  <si>
+    <t>55.694 (36)</t>
+  </si>
+  <si>
+    <t>50.778 (36)</t>
+  </si>
+  <si>
+    <t>53.861 (36)</t>
+  </si>
+  <si>
+    <t>52.444 (36)</t>
+  </si>
+  <si>
+    <t>55.389 (36)</t>
+  </si>
+  <si>
+    <t>9.167 (36)</t>
+  </si>
+  <si>
+    <t>10.0 (36)</t>
+  </si>
+  <si>
+    <t>9.361 (36)</t>
+  </si>
+  <si>
+    <t>11.278 (36)</t>
+  </si>
+  <si>
+    <t>10.167 (36)</t>
+  </si>
+  <si>
+    <t>0.711 (36)</t>
+  </si>
+  <si>
+    <t>0.724 (36)</t>
+  </si>
+  <si>
+    <t>0.722 (36)</t>
+  </si>
+  <si>
+    <t>0.731 (36)</t>
+  </si>
+  <si>
+    <t>0.742 (36)</t>
+  </si>
+  <si>
+    <t>52.5 (88)</t>
+  </si>
+  <si>
+    <t>49.08 (88)</t>
+  </si>
+  <si>
+    <t>50.205 (88)</t>
+  </si>
+  <si>
+    <t>50.307 (88)</t>
+  </si>
+  <si>
+    <t>49.966 (88)</t>
+  </si>
+  <si>
+    <t>10.136 (88)</t>
+  </si>
+  <si>
+    <t>10.932 (88)</t>
+  </si>
+  <si>
+    <t>11.08 (88)</t>
+  </si>
+  <si>
+    <t>11.364 (88)</t>
+  </si>
+  <si>
+    <t>0.691 (88)</t>
+  </si>
+  <si>
+    <t>0.703 (88)</t>
+  </si>
+  <si>
+    <t>50.303 (66)</t>
+  </si>
+  <si>
+    <t>42.106 (66)</t>
+  </si>
+  <si>
+    <t>44.53 (66)</t>
+  </si>
+  <si>
+    <t>46.242 (66)</t>
+  </si>
+  <si>
+    <t>44.712 (66)</t>
+  </si>
+  <si>
+    <t>11.03 (66)</t>
+  </si>
+  <si>
+    <t>12.773 (66)</t>
+  </si>
+  <si>
+    <t>13.621 (66)</t>
+  </si>
+  <si>
+    <t>13.515 (66)</t>
+  </si>
+  <si>
+    <t>14.318 (66)</t>
+  </si>
+  <si>
+    <t>0.7 (66)</t>
+  </si>
+  <si>
+    <t>0.704 (66)</t>
+  </si>
+  <si>
+    <t>0.71 (66)</t>
+  </si>
+  <si>
+    <t>0.718 (66)</t>
+  </si>
+  <si>
+    <t>0.721 (66)</t>
+  </si>
+  <si>
+    <t>48.0 (10)</t>
+  </si>
+  <si>
+    <t>47.5 (10)</t>
+  </si>
+  <si>
+    <t>46.8 (10)</t>
+  </si>
+  <si>
+    <t>46.7 (10)</t>
+  </si>
+  <si>
+    <t>45.4 (10)</t>
+  </si>
+  <si>
+    <t>12.0 (10)</t>
+  </si>
+  <si>
+    <t>11.5 (10)</t>
+  </si>
+  <si>
+    <t>12.3 (10)</t>
+  </si>
+  <si>
+    <t>13.3 (10)</t>
+  </si>
+  <si>
+    <t>14.4 (10)</t>
+  </si>
+  <si>
+    <t>0.677 (10)</t>
+  </si>
+  <si>
+    <t>0.698 (10)</t>
+  </si>
+  <si>
+    <t>0.752 (10)</t>
+  </si>
+  <si>
+    <t>0.76 (10)</t>
+  </si>
+  <si>
+    <t>0.717 (10)</t>
+  </si>
+  <si>
+    <t>55.944 (18)</t>
+  </si>
+  <si>
+    <t>53.778 (18)</t>
+  </si>
+  <si>
+    <t>54.611 (18)</t>
+  </si>
+  <si>
+    <t>52.389 (18)</t>
+  </si>
+  <si>
+    <t>53.222 (18)</t>
+  </si>
+  <si>
+    <t>8.778 (18)</t>
+  </si>
+  <si>
+    <t>9.444 (18)</t>
+  </si>
+  <si>
+    <t>8.389 (18)</t>
+  </si>
+  <si>
+    <t>11.444 (18)</t>
+  </si>
+  <si>
+    <t>10.944 (18)</t>
+  </si>
+  <si>
+    <t>0.711 (18)</t>
+  </si>
+  <si>
+    <t>0.721 (18)</t>
+  </si>
+  <si>
+    <t>0.727 (18)</t>
+  </si>
+  <si>
+    <t>0.734 (18)</t>
+  </si>
+  <si>
+    <t>0.755 (18)</t>
+  </si>
+  <si>
+    <t>54.173 (81)</t>
+  </si>
+  <si>
+    <t>50.926 (81)</t>
+  </si>
+  <si>
+    <t>51.877 (81)</t>
+  </si>
+  <si>
+    <t>51.778 (81)</t>
+  </si>
+  <si>
+    <t>51.457 (81)</t>
+  </si>
+  <si>
+    <t>9.333 (81)</t>
+  </si>
+  <si>
+    <t>10.272 (81)</t>
+  </si>
+  <si>
+    <t>10.296 (81)</t>
+  </si>
+  <si>
+    <t>10.679 (81)</t>
+  </si>
+  <si>
+    <t>11.0 (81)</t>
+  </si>
+  <si>
+    <t>0.698 (81)</t>
+  </si>
+  <si>
+    <t>0.713 (81)</t>
+  </si>
+  <si>
+    <t>0.715 (81)</t>
+  </si>
+  <si>
+    <t>0.712 (81)</t>
+  </si>
+  <si>
+    <t>0.71 (81)</t>
+  </si>
+  <si>
+    <t>50.429 (84)</t>
+  </si>
+  <si>
+    <t>42.262 (84)</t>
+  </si>
+  <si>
+    <t>45.179 (84)</t>
+  </si>
+  <si>
+    <t>46.774 (84)</t>
+  </si>
+  <si>
+    <t>46.619 (84)</t>
+  </si>
+  <si>
+    <t>11.202 (84)</t>
+  </si>
+  <si>
+    <t>13.0 (84)</t>
+  </si>
+  <si>
+    <t>13.357 (84)</t>
+  </si>
+  <si>
+    <t>13.071 (84)</t>
+  </si>
+  <si>
+    <t>13.31 (84)</t>
+  </si>
+  <si>
+    <t>0.694 (84)</t>
+  </si>
+  <si>
+    <t>0.696 (84)</t>
+  </si>
+  <si>
+    <t>0.701 (84)</t>
+  </si>
+  <si>
+    <t>0.709 (84)</t>
+  </si>
+  <si>
+    <t>0.71 (84)</t>
+  </si>
+  <si>
+    <t>46.706 (17)</t>
+  </si>
+  <si>
+    <t>44.588 (17)</t>
+  </si>
+  <si>
+    <t>46.118 (17)</t>
+  </si>
+  <si>
+    <t>45.176 (17)</t>
+  </si>
+  <si>
+    <t>44.353 (17)</t>
+  </si>
+  <si>
+    <t>12.647 (17)</t>
+  </si>
+  <si>
+    <t>12.0 (17)</t>
+  </si>
+  <si>
+    <t>12.588 (17)</t>
+  </si>
+  <si>
+    <t>13.941 (17)</t>
+  </si>
+  <si>
+    <t>14.647 (17)</t>
+  </si>
+  <si>
+    <t>0.686 (17)</t>
+  </si>
+  <si>
+    <t>0.716 (17)</t>
+  </si>
+  <si>
+    <t>0.744 (17)</t>
+  </si>
+  <si>
+    <t>0.751 (17)</t>
+  </si>
+  <si>
+    <t>0.734 (17)</t>
+  </si>
+  <si>
+    <t>60.0 (10)</t>
+  </si>
+  <si>
+    <t>56.9 (10)</t>
+  </si>
+  <si>
+    <t>53.3 (10)</t>
+  </si>
+  <si>
+    <t>49.0 (10)</t>
+  </si>
+  <si>
+    <t>51.4 (10)</t>
+  </si>
+  <si>
+    <t>7.2 (10)</t>
+  </si>
+  <si>
+    <t>8.5 (10)</t>
+  </si>
+  <si>
+    <t>9.1 (10)</t>
+  </si>
+  <si>
+    <t>11.9 (10)</t>
+  </si>
+  <si>
+    <t>0.738 (10)</t>
+  </si>
+  <si>
+    <t>0.744 (10)</t>
+  </si>
+  <si>
+    <t>0.714 (10)</t>
+  </si>
+  <si>
+    <t>0.731 (10)</t>
+  </si>
+  <si>
+    <t>0.763 (10)</t>
+  </si>
+  <si>
+    <t>54.908 (65)</t>
+  </si>
+  <si>
+    <t>50.938 (65)</t>
+  </si>
+  <si>
+    <t>52.123 (65)</t>
+  </si>
+  <si>
+    <t>52.185 (65)</t>
+  </si>
+  <si>
+    <t>52.0 (65)</t>
+  </si>
+  <si>
+    <t>9.231 (65)</t>
+  </si>
+  <si>
+    <t>10.385 (65)</t>
+  </si>
+  <si>
+    <t>10.108 (65)</t>
+  </si>
+  <si>
+    <t>10.846 (65)</t>
+  </si>
+  <si>
+    <t>10.708 (65)</t>
+  </si>
+  <si>
+    <t>0.698 (65)</t>
+  </si>
+  <si>
+    <t>0.706 (65)</t>
+  </si>
+  <si>
+    <t>0.712 (65)</t>
+  </si>
+  <si>
+    <t>0.708 (65)</t>
+  </si>
+  <si>
+    <t>0.704 (65)</t>
+  </si>
+  <si>
+    <t>51.143 (91)</t>
+  </si>
+  <si>
+    <t>44.571 (91)</t>
+  </si>
+  <si>
+    <t>47.505 (91)</t>
+  </si>
+  <si>
+    <t>48.407 (91)</t>
+  </si>
+  <si>
+    <t>48.527 (91)</t>
+  </si>
+  <si>
+    <t>10.747 (91)</t>
+  </si>
+  <si>
+    <t>12.132 (91)</t>
+  </si>
+  <si>
+    <t>12.286 (91)</t>
+  </si>
+  <si>
+    <t>12.484 (91)</t>
+  </si>
+  <si>
+    <t>0.698 (91)</t>
+  </si>
+  <si>
+    <t>0.708 (91)</t>
+  </si>
+  <si>
+    <t>0.712 (91)</t>
+  </si>
+  <si>
+    <t>0.716 (91)</t>
+  </si>
+  <si>
+    <t>0.72 (91)</t>
+  </si>
+  <si>
+    <t>47.455 (33)</t>
+  </si>
+  <si>
+    <t>43.273 (33)</t>
+  </si>
+  <si>
+    <t>44.515 (33)</t>
+  </si>
+  <si>
+    <t>45.848 (33)</t>
+  </si>
+  <si>
+    <t>43.97 (33)</t>
+  </si>
+  <si>
+    <t>12.182 (33)</t>
+  </si>
+  <si>
+    <t>12.606 (33)</t>
+  </si>
+  <si>
+    <t>13.455 (33)</t>
+  </si>
+  <si>
+    <t>13.758 (33)</t>
+  </si>
+  <si>
+    <t>14.667 (33)</t>
+  </si>
+  <si>
+    <t>0.677 (33)</t>
+  </si>
+  <si>
+    <t>0.689 (33)</t>
+  </si>
+  <si>
+    <t>0.711 (33)</t>
+  </si>
+  <si>
+    <t>0.728 (33)</t>
+  </si>
+  <si>
+    <t>0.713 (33)</t>
+  </si>
+  <si>
+    <t>36.0 (1)</t>
+  </si>
+  <si>
+    <t>37.0 (1)</t>
+  </si>
+  <si>
+    <t>51.0 (1)</t>
+  </si>
+  <si>
+    <t>34.0 (1)</t>
+  </si>
+  <si>
+    <t>35.0 (1)</t>
+  </si>
+  <si>
+    <t>18.0 (1)</t>
+  </si>
+  <si>
+    <t>11.0 (1)</t>
+  </si>
+  <si>
+    <t>20.0 (1)</t>
+  </si>
+  <si>
+    <t>0.697 (1)</t>
+  </si>
+  <si>
+    <t>0.88 (1)</t>
+  </si>
+  <si>
+    <t>0.916 (1)</t>
+  </si>
+  <si>
+    <t>0.716 (1)</t>
   </si>
 </sst>
 </file>
@@ -472,316 +2434,316 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.32</v>
-      </c>
-      <c r="C2">
-        <v>53.523</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>2.993</v>
+        <v>2.21</v>
       </c>
       <c r="G2">
-        <v>0.053</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.743</v>
-      </c>
-      <c r="C3">
-        <v>53.716</v>
-      </c>
-      <c r="D3">
-        <v>52</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>1.285</v>
+        <v>0.594</v>
       </c>
       <c r="G3">
-        <v>0.279</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>57.824</v>
-      </c>
-      <c r="C4">
-        <v>53.987</v>
-      </c>
-      <c r="D4">
-        <v>50.667</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
       </c>
       <c r="E4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>2.355</v>
+        <v>2.004</v>
       </c>
       <c r="G4">
-        <v>0.098</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>57.738</v>
-      </c>
-      <c r="C5">
-        <v>54.411</v>
-      </c>
-      <c r="D5">
-        <v>53.2</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>1.442</v>
+        <v>0.75</v>
       </c>
       <c r="G5">
-        <v>0.24</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58.532</v>
-      </c>
-      <c r="C6">
-        <v>53.788</v>
-      </c>
-      <c r="D6">
-        <v>59.25</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>2.798</v>
+        <v>2.804</v>
       </c>
       <c r="G6">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.093</v>
-      </c>
-      <c r="C7">
-        <v>9.568</v>
-      </c>
-      <c r="D7">
-        <v>11.571</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>2.887</v>
+        <v>1.892</v>
       </c>
       <c r="G7">
-        <v>0.059</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.186</v>
-      </c>
-      <c r="C8">
-        <v>9.519</v>
-      </c>
-      <c r="D8">
-        <v>10.286</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>1.488</v>
+        <v>0.822</v>
       </c>
       <c r="G8">
-        <v>0.229</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.691</v>
-      </c>
-      <c r="C9">
-        <v>9.467000000000001</v>
-      </c>
-      <c r="D9">
-        <v>11.333</v>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F9">
-        <v>3.018</v>
+        <v>2.368</v>
       </c>
       <c r="G9">
-        <v>0.052</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.869</v>
-      </c>
-      <c r="C10">
-        <v>9.041</v>
-      </c>
-      <c r="D10">
-        <v>9.199999999999999</v>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
       <c r="E10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>0.884</v>
+        <v>0.392</v>
       </c>
       <c r="G10">
-        <v>0.415</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.435</v>
-      </c>
-      <c r="C11">
-        <v>9.182</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>1.981</v>
+        <v>2.091</v>
       </c>
       <c r="G11">
-        <v>0.142</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.702</v>
-      </c>
-      <c r="C12">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.714</v>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="G12">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.707</v>
-      </c>
-      <c r="C13">
-        <v>0.703</v>
-      </c>
-      <c r="D13">
-        <v>0.739</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F13">
-        <v>0.227</v>
+        <v>0.249</v>
       </c>
       <c r="G13">
-        <v>0.797</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.702</v>
-      </c>
-      <c r="C14">
-        <v>0.718</v>
-      </c>
-      <c r="D14">
-        <v>0.763</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>0.6899999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="G14">
-        <v>0.503</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.711</v>
-      </c>
-      <c r="C15">
-        <v>0.72</v>
-      </c>
-      <c r="D15">
-        <v>0.721</v>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>0.077</v>
@@ -794,23 +2756,23 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.734</v>
-      </c>
-      <c r="C16">
-        <v>0.701</v>
-      </c>
-      <c r="D16">
-        <v>0.678</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>1.27</v>
+        <v>1.249</v>
       </c>
       <c r="G16">
-        <v>0.284</v>
+        <v>0.289</v>
       </c>
     </row>
   </sheetData>
@@ -856,390 +2818,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>59.633</v>
-      </c>
-      <c r="C2">
-        <v>55.36</v>
-      </c>
-      <c r="D2">
-        <v>52.561</v>
-      </c>
-      <c r="E2">
-        <v>51</v>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" t="s">
+        <v>528</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>2.384</v>
+        <v>1.586</v>
       </c>
       <c r="H2">
-        <v>0.07099999999999999</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>60.429</v>
-      </c>
-      <c r="C3">
-        <v>55.149</v>
-      </c>
-      <c r="D3">
-        <v>52.255</v>
-      </c>
-      <c r="E3">
-        <v>50.889</v>
+      <c r="B3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" t="s">
+        <v>529</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>2.882</v>
+        <v>2.297</v>
       </c>
       <c r="H3">
-        <v>0.038</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>63.423</v>
-      </c>
-      <c r="C4">
-        <v>54.917</v>
-      </c>
-      <c r="D4">
-        <v>52.837</v>
-      </c>
-      <c r="E4">
-        <v>51.25</v>
+      <c r="B4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>530</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>5.198</v>
+        <v>3.306</v>
       </c>
       <c r="H4">
-        <v>0.002</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>61.667</v>
-      </c>
-      <c r="C5">
-        <v>55.103</v>
-      </c>
-      <c r="D5">
-        <v>54.2</v>
-      </c>
-      <c r="E5">
-        <v>52.143</v>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" t="s">
+        <v>531</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>2.584</v>
+        <v>1.911</v>
       </c>
       <c r="H5">
-        <v>0.056</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>65.583</v>
-      </c>
-      <c r="C6">
-        <v>54.368</v>
-      </c>
-      <c r="D6">
-        <v>52.806</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" t="s">
+        <v>532</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>7.895</v>
+        <v>5.33</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.4</v>
-      </c>
-      <c r="C7">
-        <v>8.773</v>
-      </c>
-      <c r="D7">
-        <v>9.93</v>
-      </c>
-      <c r="E7">
-        <v>10.5</v>
+      <c r="B7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>533</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>2.082</v>
+        <v>1.215</v>
       </c>
       <c r="H7">
-        <v>0.105</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.857</v>
-      </c>
-      <c r="C8">
-        <v>9.27</v>
-      </c>
-      <c r="D8">
-        <v>9.446999999999999</v>
-      </c>
-      <c r="E8">
-        <v>10.444</v>
+      <c r="B8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" t="s">
+        <v>534</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>2.047</v>
+        <v>1.476</v>
       </c>
       <c r="H8">
-        <v>0.11</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>5.269</v>
-      </c>
-      <c r="C9">
-        <v>8.917</v>
-      </c>
-      <c r="D9">
-        <v>10.209</v>
-      </c>
-      <c r="E9">
-        <v>10.375</v>
+      <c r="B9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" t="s">
+        <v>535</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>5.989</v>
+        <v>3.925</v>
       </c>
       <c r="H9">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>6.917</v>
-      </c>
-      <c r="C10">
-        <v>8.456</v>
-      </c>
-      <c r="D10">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E10">
-        <v>10.429</v>
+      <c r="B10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" t="s">
+        <v>536</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>1.387</v>
+        <v>1.888</v>
       </c>
       <c r="H10">
-        <v>0.249</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>5.25</v>
-      </c>
-      <c r="C11">
-        <v>8.824</v>
-      </c>
-      <c r="D11">
-        <v>9.583</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
+      <c r="B11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" t="s">
+        <v>537</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>4.323</v>
+        <v>3.977</v>
       </c>
       <c r="H11">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.713</v>
-      </c>
-      <c r="C12">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.7</v>
-      </c>
-      <c r="E12">
-        <v>0.672</v>
+      <c r="B12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" t="s">
+        <v>538</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.313</v>
+        <v>0.306</v>
       </c>
       <c r="H12">
-        <v>0.8159999999999999</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.728</v>
-      </c>
-      <c r="C13">
-        <v>0.702</v>
-      </c>
-      <c r="D13">
-        <v>0.703</v>
-      </c>
-      <c r="E13">
-        <v>0.697</v>
+      <c r="B13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" t="s">
+        <v>539</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.294</v>
+        <v>0.295</v>
       </c>
       <c r="H13">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.725</v>
-      </c>
-      <c r="C14">
-        <v>0.706</v>
-      </c>
-      <c r="D14">
-        <v>0.709</v>
-      </c>
-      <c r="E14">
-        <v>0.762</v>
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" t="s">
+        <v>540</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.504</v>
+        <v>0.535</v>
       </c>
       <c r="H14">
-        <v>0.68</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.738</v>
-      </c>
-      <c r="C15">
-        <v>0.7</v>
-      </c>
-      <c r="D15">
-        <v>0.719</v>
-      </c>
-      <c r="E15">
-        <v>0.779</v>
+      <c r="B15" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" t="s">
+        <v>541</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>1.087</v>
+        <v>1.121</v>
       </c>
       <c r="H15">
-        <v>0.357</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.756</v>
-      </c>
-      <c r="C16">
-        <v>0.697</v>
-      </c>
-      <c r="D16">
-        <v>0.725</v>
-      </c>
-      <c r="E16">
-        <v>0.718</v>
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>527</v>
+      </c>
+      <c r="E16" t="s">
+        <v>542</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>1.377</v>
+        <v>1.469</v>
       </c>
       <c r="H16">
-        <v>0.253</v>
+        <v>0.224</v>
       </c>
     </row>
   </sheetData>
@@ -1285,390 +3247,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.118</v>
-      </c>
-      <c r="C2">
-        <v>57.029</v>
-      </c>
-      <c r="D2">
-        <v>53.314</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
+      <c r="B2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
+        <v>588</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>1.873</v>
+        <v>2.51</v>
       </c>
       <c r="H2">
-        <v>0.136</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.375</v>
-      </c>
-      <c r="C3">
-        <v>56.826</v>
-      </c>
-      <c r="D3">
-        <v>52.367</v>
-      </c>
-      <c r="E3">
-        <v>53.077</v>
+      <c r="B3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
+        <v>589</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>1.859</v>
+        <v>3.851</v>
       </c>
       <c r="H3">
-        <v>0.139</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>59.733</v>
-      </c>
-      <c r="C4">
-        <v>57.953</v>
-      </c>
-      <c r="D4">
-        <v>52.431</v>
-      </c>
-      <c r="E4">
-        <v>53.25</v>
+      <c r="B4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E4" t="s">
+        <v>590</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>2.982</v>
+        <v>3.693</v>
       </c>
       <c r="H4">
-        <v>0.033</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.462</v>
-      </c>
-      <c r="C5">
-        <v>57.607</v>
-      </c>
-      <c r="D5">
-        <v>53.87</v>
-      </c>
-      <c r="E5">
-        <v>51.273</v>
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" t="s">
+        <v>591</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>1.932</v>
+        <v>2.554</v>
       </c>
       <c r="H5">
-        <v>0.127</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>60.231</v>
-      </c>
-      <c r="C6">
-        <v>56.852</v>
-      </c>
-      <c r="D6">
-        <v>54.52</v>
-      </c>
-      <c r="E6">
-        <v>54.875</v>
+      <c r="B6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E6" t="s">
+        <v>592</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>0.9379999999999999</v>
+        <v>2.941</v>
       </c>
       <c r="H6">
-        <v>0.425</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.234999999999999</v>
-      </c>
-      <c r="C7">
-        <v>7.971</v>
-      </c>
-      <c r="D7">
-        <v>9.843</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E7" t="s">
+        <v>593</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>2.639</v>
+        <v>3.107</v>
       </c>
       <c r="H7">
-        <v>0.051</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>8.406000000000001</v>
-      </c>
-      <c r="D8">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E8">
-        <v>9.231</v>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" t="s">
+        <v>594</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>0.982</v>
+        <v>2.961</v>
       </c>
       <c r="H8">
-        <v>0.403</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.067</v>
-      </c>
-      <c r="C9">
-        <v>7.719</v>
-      </c>
-      <c r="D9">
-        <v>10.379</v>
-      </c>
-      <c r="E9">
-        <v>9.5</v>
+      <c r="B9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" t="s">
+        <v>580</v>
+      </c>
+      <c r="E9" t="s">
+        <v>595</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>4.571</v>
+        <v>4.82</v>
       </c>
       <c r="H9">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.154</v>
-      </c>
-      <c r="C10">
-        <v>7.623</v>
-      </c>
-      <c r="D10">
-        <v>9.222</v>
-      </c>
-      <c r="E10">
-        <v>10.636</v>
+      <c r="B10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10" t="s">
+        <v>596</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>1.579</v>
+        <v>2.228</v>
       </c>
       <c r="H10">
-        <v>0.197</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.462</v>
-      </c>
-      <c r="C11">
-        <v>8.048999999999999</v>
-      </c>
-      <c r="D11">
-        <v>8.76</v>
-      </c>
-      <c r="E11">
-        <v>8.625</v>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" t="s">
+        <v>597</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>0.299</v>
+        <v>2.452</v>
       </c>
       <c r="H11">
-        <v>0.826</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.712</v>
-      </c>
-      <c r="C12">
-        <v>0.698</v>
-      </c>
-      <c r="D12">
-        <v>0.694</v>
-      </c>
-      <c r="E12">
-        <v>0.6830000000000001</v>
+      <c r="B12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E12" t="s">
+        <v>598</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.131</v>
+        <v>0.134</v>
       </c>
       <c r="H12">
-        <v>0.9419999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.723</v>
-      </c>
-      <c r="C13">
-        <v>0.714</v>
-      </c>
-      <c r="D13">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.719</v>
+      <c r="B13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" t="s">
+        <v>584</v>
+      </c>
+      <c r="E13" t="s">
+        <v>599</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.435</v>
+        <v>0.423</v>
       </c>
       <c r="H13">
-        <v>0.728</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.729</v>
-      </c>
-      <c r="C14">
-        <v>0.716</v>
-      </c>
-      <c r="D14">
-        <v>0.696</v>
-      </c>
-      <c r="E14">
-        <v>0.757</v>
+      <c r="B14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E14" t="s">
+        <v>600</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.823</v>
+        <v>0.789</v>
       </c>
       <c r="H14">
-        <v>0.483</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.741</v>
-      </c>
-      <c r="C15">
-        <v>0.711</v>
-      </c>
-      <c r="D15">
-        <v>0.705</v>
-      </c>
-      <c r="E15">
-        <v>0.77</v>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" t="s">
+        <v>571</v>
+      </c>
+      <c r="D15" t="s">
+        <v>586</v>
+      </c>
+      <c r="E15" t="s">
+        <v>601</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>0.901</v>
+        <v>0.861</v>
       </c>
       <c r="H15">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.77</v>
-      </c>
-      <c r="C16">
-        <v>0.708</v>
-      </c>
-      <c r="D16">
-        <v>0.705</v>
-      </c>
-      <c r="E16">
-        <v>0.754</v>
+      <c r="B16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" t="s">
+        <v>587</v>
+      </c>
+      <c r="E16" t="s">
+        <v>602</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>1.235</v>
+        <v>1.239</v>
       </c>
       <c r="H16">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
     </row>
   </sheetData>
@@ -1717,408 +3679,435 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>62.667</v>
-      </c>
-      <c r="C2">
-        <v>57.946</v>
-      </c>
-      <c r="D2">
-        <v>54.132</v>
-      </c>
-      <c r="E2">
-        <v>49.034</v>
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2" t="s">
+        <v>661</v>
       </c>
       <c r="G2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H2">
-        <v>4.654</v>
+        <v>3.131</v>
       </c>
       <c r="I2">
-        <v>0.004</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>61.333</v>
-      </c>
-      <c r="C3">
-        <v>57.852</v>
-      </c>
-      <c r="D3">
-        <v>53.897</v>
-      </c>
-      <c r="E3">
-        <v>50.346</v>
-      </c>
-      <c r="F3">
-        <v>37</v>
+      <c r="B3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F3" t="s">
+        <v>662</v>
       </c>
       <c r="G3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="H3">
-        <v>2.905</v>
+        <v>2.152</v>
       </c>
       <c r="I3">
-        <v>0.024</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>59.375</v>
-      </c>
-      <c r="C4">
-        <v>59.673</v>
-      </c>
-      <c r="D4">
-        <v>54.134</v>
-      </c>
-      <c r="E4">
-        <v>50.333</v>
-      </c>
-      <c r="F4">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F4" t="s">
+        <v>663</v>
       </c>
       <c r="G4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H4">
-        <v>3.178</v>
+        <v>1.75</v>
       </c>
       <c r="I4">
-        <v>0.015</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-      <c r="C5">
-        <v>58.625</v>
-      </c>
-      <c r="D5">
-        <v>54.484</v>
-      </c>
-      <c r="E5">
-        <v>52.619</v>
+      <c r="B5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F5" t="s">
+        <v>664</v>
       </c>
       <c r="G5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="H5">
-        <v>1.851</v>
+        <v>1.572</v>
       </c>
       <c r="I5">
-        <v>0.141</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>62.333</v>
-      </c>
-      <c r="C6">
-        <v>57.551</v>
-      </c>
-      <c r="D6">
-        <v>55.517</v>
-      </c>
-      <c r="E6">
-        <v>52.412</v>
+      <c r="B6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F6" t="s">
+        <v>665</v>
       </c>
       <c r="G6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="H6">
-        <v>1.419</v>
+        <v>2.251</v>
       </c>
       <c r="I6">
-        <v>0.24</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7.821</v>
-      </c>
-      <c r="D7">
-        <v>9.316000000000001</v>
-      </c>
-      <c r="E7">
-        <v>11.379</v>
+      <c r="B7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F7" t="s">
+        <v>666</v>
       </c>
       <c r="G7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H7">
-        <v>4.878</v>
+        <v>3.072</v>
       </c>
       <c r="I7">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.111</v>
-      </c>
-      <c r="C8">
-        <v>8.222</v>
-      </c>
-      <c r="D8">
-        <v>9.132</v>
-      </c>
-      <c r="E8">
-        <v>10.346</v>
-      </c>
-      <c r="F8">
-        <v>18</v>
+      <c r="B8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D8" t="s">
+        <v>638</v>
+      </c>
+      <c r="E8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" t="s">
+        <v>666</v>
       </c>
       <c r="G8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="H8">
-        <v>1.841</v>
+        <v>1.616</v>
       </c>
       <c r="I8">
-        <v>0.124</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.375</v>
-      </c>
-      <c r="C9">
-        <v>6.878</v>
-      </c>
-      <c r="D9">
-        <v>9.522</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" t="s">
+        <v>639</v>
+      </c>
+      <c r="E9" t="s">
+        <v>653</v>
+      </c>
+      <c r="F9" t="s">
+        <v>667</v>
       </c>
       <c r="G9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H9">
-        <v>3.928</v>
+        <v>2.123</v>
       </c>
       <c r="I9">
-        <v>0.005</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.167</v>
-      </c>
-      <c r="C10">
-        <v>7.604</v>
-      </c>
-      <c r="D10">
-        <v>8.811999999999999</v>
-      </c>
-      <c r="E10">
-        <v>10.19</v>
+      <c r="B10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E10" t="s">
+        <v>654</v>
+      </c>
+      <c r="F10" t="s">
+        <v>668</v>
       </c>
       <c r="G10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="H10">
-        <v>1.432</v>
+        <v>1.371</v>
       </c>
       <c r="I10">
-        <v>0.236</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.5</v>
-      </c>
-      <c r="C11">
-        <v>7.673</v>
-      </c>
-      <c r="D11">
-        <v>8.6</v>
-      </c>
-      <c r="E11">
-        <v>9.647</v>
+      <c r="B11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" t="s">
+        <v>640</v>
+      </c>
+      <c r="E11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F11" t="s">
+        <v>668</v>
       </c>
       <c r="G11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>0.9320000000000001</v>
+        <v>2.182</v>
       </c>
       <c r="I11">
-        <v>0.427</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.743</v>
-      </c>
-      <c r="C12">
-        <v>0.698</v>
-      </c>
-      <c r="D12">
-        <v>0.699</v>
-      </c>
-      <c r="E12">
-        <v>0.675</v>
+      <c r="B12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D12" t="s">
+        <v>641</v>
+      </c>
+      <c r="E12" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" t="s">
+        <v>669</v>
       </c>
       <c r="G12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H12">
-        <v>0.606</v>
+        <v>0.475</v>
       </c>
       <c r="I12">
-        <v>0.612</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.749</v>
-      </c>
-      <c r="C13">
-        <v>0.706</v>
-      </c>
-      <c r="D13">
-        <v>0.708</v>
-      </c>
-      <c r="E13">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.88</v>
+      <c r="B13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" t="s">
+        <v>642</v>
+      </c>
+      <c r="E13" t="s">
+        <v>657</v>
+      </c>
+      <c r="F13" t="s">
+        <v>670</v>
       </c>
       <c r="G13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="H13">
-        <v>0.823</v>
+        <v>0.967</v>
       </c>
       <c r="I13">
-        <v>0.512</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.714</v>
-      </c>
-      <c r="C14">
-        <v>0.712</v>
-      </c>
-      <c r="D14">
-        <v>0.711</v>
-      </c>
-      <c r="E14">
-        <v>0.71</v>
-      </c>
-      <c r="F14">
-        <v>0.916</v>
+      <c r="B14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F14" t="s">
+        <v>671</v>
       </c>
       <c r="G14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H14">
-        <v>0.573</v>
+        <v>0.773</v>
       </c>
       <c r="I14">
-        <v>0.6830000000000001</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.741</v>
-      </c>
-      <c r="C15">
-        <v>0.705</v>
-      </c>
-      <c r="D15">
-        <v>0.716</v>
-      </c>
-      <c r="E15">
-        <v>0.735</v>
+      <c r="B15" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" t="s">
+        <v>644</v>
+      </c>
+      <c r="E15" t="s">
+        <v>659</v>
+      </c>
+      <c r="F15" t="s">
+        <v>672</v>
       </c>
       <c r="G15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="H15">
-        <v>0.317</v>
+        <v>0.228</v>
       </c>
       <c r="I15">
-        <v>0.8129999999999999</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.794</v>
-      </c>
-      <c r="C16">
-        <v>0.7</v>
-      </c>
-      <c r="D16">
-        <v>0.722</v>
-      </c>
-      <c r="E16">
-        <v>0.711</v>
+      <c r="B16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" t="s">
+        <v>631</v>
+      </c>
+      <c r="D16" t="s">
+        <v>645</v>
+      </c>
+      <c r="E16" t="s">
+        <v>660</v>
+      </c>
+      <c r="F16" t="s">
+        <v>672</v>
       </c>
       <c r="G16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="H16">
-        <v>1.048</v>
+        <v>0.757</v>
       </c>
       <c r="I16">
-        <v>0.374</v>
+        <v>0.554</v>
       </c>
     </row>
   </sheetData>
@@ -2164,390 +4153,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.339</v>
-      </c>
-      <c r="C2">
-        <v>54.539</v>
-      </c>
-      <c r="D2">
-        <v>48.889</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>2.186</v>
+        <v>1.552</v>
       </c>
       <c r="H2">
-        <v>0.092</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.793</v>
-      </c>
-      <c r="C3">
-        <v>54.821</v>
-      </c>
-      <c r="D3">
-        <v>47.8</v>
-      </c>
-      <c r="E3">
-        <v>71</v>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>2.631</v>
+        <v>1.693</v>
       </c>
       <c r="H3">
-        <v>0.052</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>58.382</v>
-      </c>
-      <c r="C4">
-        <v>55.203</v>
-      </c>
-      <c r="D4">
-        <v>46.5</v>
-      </c>
-      <c r="E4">
-        <v>62</v>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>3.952</v>
+        <v>2.572</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>58.327</v>
-      </c>
-      <c r="C5">
-        <v>54.922</v>
-      </c>
-      <c r="D5">
-        <v>49.917</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>2.749</v>
+        <v>2.371</v>
       </c>
       <c r="H5">
-        <v>0.045</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58.54</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>50.333</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>2.683</v>
+        <v>3.906</v>
       </c>
       <c r="H6">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.257999999999999</v>
-      </c>
-      <c r="C7">
-        <v>9.135</v>
-      </c>
-      <c r="D7">
-        <v>10.944</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>1.459</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H7">
-        <v>0.228</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.379</v>
-      </c>
-      <c r="C8">
-        <v>8.964</v>
-      </c>
-      <c r="D8">
-        <v>11.6</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>2.017</v>
+        <v>1.666</v>
       </c>
       <c r="H8">
-        <v>0.114</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.564</v>
-      </c>
-      <c r="C9">
-        <v>8.823</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>4.593</v>
+        <v>2.86</v>
       </c>
       <c r="H9">
-        <v>0.004</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.857</v>
-      </c>
-      <c r="C10">
-        <v>8.701000000000001</v>
-      </c>
-      <c r="D10">
-        <v>10.667</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>1.362</v>
+        <v>1.455</v>
       </c>
       <c r="H10">
-        <v>0.257</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.7</v>
-      </c>
-      <c r="C11">
-        <v>8.486000000000001</v>
-      </c>
-      <c r="D11">
-        <v>10.889</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>1.698</v>
+        <v>3.106</v>
       </c>
       <c r="H11">
-        <v>0.171</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.699</v>
-      </c>
-      <c r="C12">
-        <v>0.696</v>
-      </c>
-      <c r="D12">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.728</v>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="H12">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.712</v>
-      </c>
-      <c r="C13">
-        <v>0.703</v>
-      </c>
-      <c r="D13">
-        <v>0.699</v>
-      </c>
-      <c r="E13">
-        <v>0.77</v>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H13">
-        <v>0.9360000000000001</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.703</v>
-      </c>
-      <c r="C14">
-        <v>0.718</v>
-      </c>
-      <c r="D14">
-        <v>0.716</v>
-      </c>
-      <c r="E14">
-        <v>0.8149999999999999</v>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.336</v>
+        <v>0.406</v>
       </c>
       <c r="H14">
-        <v>0.799</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.707</v>
-      </c>
-      <c r="C15">
-        <v>0.722</v>
-      </c>
-      <c r="D15">
-        <v>0.715</v>
-      </c>
-      <c r="E15">
-        <v>0.753</v>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>0.151</v>
+        <v>0.163</v>
       </c>
       <c r="H15">
-        <v>0.929</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.731</v>
-      </c>
-      <c r="C16">
-        <v>0.708</v>
-      </c>
-      <c r="D16">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.729</v>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>0.517</v>
+        <v>0.477</v>
       </c>
       <c r="H16">
-        <v>0.671</v>
+        <v>0.699</v>
       </c>
     </row>
   </sheetData>
@@ -2593,390 +4582,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.816</v>
-      </c>
-      <c r="C2">
-        <v>55.084</v>
-      </c>
-      <c r="D2">
-        <v>50.88</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>1.225</v>
+        <v>1.996</v>
       </c>
       <c r="H2">
-        <v>0.302</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>56.174</v>
-      </c>
-      <c r="C3">
-        <v>55.157</v>
-      </c>
-      <c r="D3">
-        <v>51.045</v>
-      </c>
-      <c r="E3">
-        <v>71</v>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>2.397</v>
       </c>
       <c r="H3">
-        <v>0.245</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>58.143</v>
-      </c>
-      <c r="C4">
-        <v>55.541</v>
-      </c>
-      <c r="D4">
-        <v>50.476</v>
-      </c>
-      <c r="E4">
-        <v>62</v>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>2.007</v>
+        <v>2.316</v>
       </c>
       <c r="H4">
-        <v>0.116</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>57.378</v>
-      </c>
-      <c r="C5">
-        <v>56.305</v>
-      </c>
-      <c r="D5">
-        <v>49.789</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>2.78</v>
+        <v>3.193</v>
       </c>
       <c r="H5">
-        <v>0.044</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>55.947</v>
-      </c>
-      <c r="C6">
-        <v>57.027</v>
-      </c>
-      <c r="D6">
-        <v>52.056</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>1.842</v>
+        <v>2.516</v>
       </c>
       <c r="H6">
-        <v>0.143</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.407999999999999</v>
-      </c>
-      <c r="C7">
-        <v>9.010999999999999</v>
-      </c>
-      <c r="D7">
-        <v>10.16</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>0.712</v>
+        <v>1.533</v>
       </c>
       <c r="H7">
-        <v>0.546</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.739000000000001</v>
-      </c>
-      <c r="C8">
-        <v>8.808999999999999</v>
-      </c>
-      <c r="D8">
-        <v>10.318</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>2.016</v>
       </c>
       <c r="H8">
-        <v>0.396</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.167</v>
-      </c>
-      <c r="C9">
-        <v>8.941000000000001</v>
-      </c>
-      <c r="D9">
-        <v>11.143</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>3.118</v>
+        <v>2.988</v>
       </c>
       <c r="H9">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.351000000000001</v>
-      </c>
-      <c r="C10">
-        <v>8.183</v>
-      </c>
-      <c r="D10">
-        <v>10.684</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>1.619</v>
+        <v>2.274</v>
       </c>
       <c r="H10">
-        <v>0.188</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.657999999999999</v>
-      </c>
-      <c r="C11">
-        <v>7.827</v>
-      </c>
-      <c r="D11">
-        <v>9.888999999999999</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>1.518</v>
+        <v>1.936</v>
       </c>
       <c r="H11">
-        <v>0.213</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.704</v>
-      </c>
-      <c r="C12">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.704</v>
-      </c>
-      <c r="E12">
-        <v>0.728</v>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.155</v>
+        <v>0.159</v>
       </c>
       <c r="H12">
-        <v>0.926</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.721</v>
-      </c>
-      <c r="C13">
-        <v>0.696</v>
-      </c>
-      <c r="D13">
-        <v>0.717</v>
-      </c>
-      <c r="E13">
-        <v>0.77</v>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.489</v>
+        <v>0.517</v>
       </c>
       <c r="H13">
-        <v>0.6899999999999999</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.717</v>
-      </c>
-      <c r="C14">
-        <v>0.705</v>
-      </c>
-      <c r="D14">
-        <v>0.731</v>
-      </c>
-      <c r="E14">
-        <v>0.8149999999999999</v>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.415</v>
+        <v>0.47</v>
       </c>
       <c r="H14">
-        <v>0.743</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.717</v>
-      </c>
-      <c r="C15">
-        <v>0.709</v>
-      </c>
-      <c r="D15">
-        <v>0.742</v>
-      </c>
-      <c r="E15">
-        <v>0.753</v>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>0.345</v>
+        <v>0.325</v>
       </c>
       <c r="H15">
-        <v>0.793</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.751</v>
-      </c>
-      <c r="C16">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.733</v>
-      </c>
-      <c r="E16">
-        <v>0.729</v>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>1.879</v>
+        <v>1.926</v>
       </c>
       <c r="H16">
-        <v>0.136</v>
+        <v>0.127</v>
       </c>
     </row>
   </sheetData>
@@ -3022,390 +5011,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>60.324</v>
-      </c>
-      <c r="C2">
-        <v>55.289</v>
-      </c>
-      <c r="D2">
-        <v>49.342</v>
-      </c>
-      <c r="E2">
-        <v>56</v>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>4.857</v>
+        <v>4.673</v>
       </c>
       <c r="H2">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.5</v>
-      </c>
-      <c r="C3">
-        <v>55.37</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>71</v>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>3.233</v>
+        <v>3.197</v>
       </c>
       <c r="H3">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>60.964</v>
-      </c>
-      <c r="C4">
-        <v>55.809</v>
-      </c>
-      <c r="D4">
-        <v>49.968</v>
-      </c>
-      <c r="E4">
-        <v>62</v>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>4.468</v>
+        <v>3.235</v>
       </c>
       <c r="H4">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>58.731</v>
-      </c>
-      <c r="C5">
-        <v>56.357</v>
-      </c>
-      <c r="D5">
-        <v>50.893</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>3.107</v>
+        <v>3.448</v>
       </c>
       <c r="H5">
-        <v>0.029</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>59.308</v>
-      </c>
-      <c r="C6">
-        <v>56.074</v>
-      </c>
-      <c r="D6">
-        <v>52.333</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>2.483</v>
+        <v>3.981</v>
       </c>
       <c r="H6">
-        <v>0.064</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.176</v>
-      </c>
-      <c r="C7">
-        <v>8.897</v>
-      </c>
-      <c r="D7">
-        <v>10.921</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>3.694</v>
+        <v>3.497</v>
       </c>
       <c r="H7">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.75</v>
-      </c>
-      <c r="C8">
-        <v>8.815</v>
-      </c>
-      <c r="D8">
-        <v>10.727</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>2.384</v>
+        <v>2.969</v>
       </c>
       <c r="H8">
-        <v>0.07099999999999999</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.071</v>
-      </c>
-      <c r="C9">
-        <v>8.651999999999999</v>
-      </c>
-      <c r="D9">
-        <v>11.452</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>6.081</v>
+        <v>3.977</v>
       </c>
       <c r="H9">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.769</v>
-      </c>
-      <c r="C10">
-        <v>8.202</v>
-      </c>
-      <c r="D10">
-        <v>10.429</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>1.954</v>
+        <v>2.53</v>
       </c>
       <c r="H10">
-        <v>0.124</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.385</v>
-      </c>
-      <c r="C11">
-        <v>8.247</v>
-      </c>
-      <c r="D11">
-        <v>9.75</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>1.589</v>
+        <v>3.221</v>
       </c>
       <c r="H11">
-        <v>0.195</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.719</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>0.494</v>
+      </c>
+      <c r="H12">
         <v>0.6870000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.699</v>
-      </c>
-      <c r="E12">
-        <v>0.728</v>
-      </c>
-      <c r="F12">
-        <v>170</v>
-      </c>
-      <c r="G12">
-        <v>0.476</v>
-      </c>
-      <c r="H12">
-        <v>0.699</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.739</v>
-      </c>
-      <c r="C13">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.715</v>
-      </c>
-      <c r="E13">
-        <v>0.77</v>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>1.101</v>
+        <v>1.164</v>
       </c>
       <c r="H13">
-        <v>0.351</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.731</v>
-      </c>
-      <c r="C14">
-        <v>0.698</v>
-      </c>
-      <c r="D14">
-        <v>0.736</v>
-      </c>
-      <c r="E14">
-        <v>0.8149999999999999</v>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" t="s">
+        <v>118</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>1.054</v>
+        <v>1.107</v>
       </c>
       <c r="H14">
-        <v>0.371</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.732</v>
-      </c>
-      <c r="C15">
-        <v>0.701</v>
-      </c>
-      <c r="D15">
-        <v>0.744</v>
-      </c>
-      <c r="E15">
-        <v>0.753</v>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>0.91</v>
+        <v>0.887</v>
       </c>
       <c r="H15">
-        <v>0.438</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.764</v>
-      </c>
-      <c r="C16">
-        <v>0.696</v>
-      </c>
-      <c r="D16">
-        <v>0.728</v>
-      </c>
-      <c r="E16">
-        <v>0.729</v>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>2.007</v>
+        <v>2.077</v>
       </c>
       <c r="H16">
-        <v>0.116</v>
+        <v>0.105</v>
       </c>
     </row>
   </sheetData>
@@ -3448,247 +5437,247 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>57.275</v>
-      </c>
-      <c r="C2">
-        <v>54.569</v>
-      </c>
-      <c r="D2">
-        <v>50.471</v>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
       </c>
       <c r="E2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>1.99</v>
+        <v>1.823</v>
       </c>
       <c r="G2">
-        <v>0.14</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.229</v>
-      </c>
-      <c r="C3">
-        <v>53.913</v>
-      </c>
-      <c r="D3">
-        <v>51.778</v>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
       </c>
       <c r="E3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>2.541</v>
+        <v>0.464</v>
       </c>
       <c r="G3">
-        <v>0.082</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>59.106</v>
-      </c>
-      <c r="C4">
-        <v>53.807</v>
-      </c>
-      <c r="D4">
-        <v>55.143</v>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
       </c>
       <c r="E4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>3.03</v>
+        <v>1.856</v>
       </c>
       <c r="G4">
-        <v>0.051</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>58.841</v>
-      </c>
-      <c r="C5">
-        <v>54.651</v>
-      </c>
-      <c r="D5">
-        <v>52.917</v>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
       </c>
       <c r="E5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>2.227</v>
+        <v>2.317</v>
       </c>
       <c r="G5">
-        <v>0.112</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>61.907</v>
-      </c>
-      <c r="C6">
-        <v>53.333</v>
-      </c>
-      <c r="D6">
-        <v>54</v>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>241</v>
       </c>
       <c r="E6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>8.367000000000001</v>
+        <v>5.751</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.314</v>
-      </c>
-      <c r="C7">
-        <v>9.069000000000001</v>
-      </c>
-      <c r="D7">
-        <v>10.647</v>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
       </c>
       <c r="E7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>1.471</v>
+        <v>1.568</v>
       </c>
       <c r="G7">
-        <v>0.233</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.562</v>
-      </c>
-      <c r="C8">
-        <v>9.542999999999999</v>
-      </c>
-      <c r="D8">
-        <v>9.722</v>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
       </c>
       <c r="E8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>2.57</v>
+        <v>0.792</v>
       </c>
       <c r="G8">
-        <v>0.08</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.213</v>
-      </c>
-      <c r="C9">
-        <v>9.477</v>
-      </c>
-      <c r="D9">
-        <v>9.143000000000001</v>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
       </c>
       <c r="E9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F9">
-        <v>3.12</v>
+        <v>1.991</v>
       </c>
       <c r="G9">
-        <v>0.047</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.636</v>
-      </c>
-      <c r="C10">
-        <v>8.867000000000001</v>
-      </c>
-      <c r="D10">
-        <v>9.5</v>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
       </c>
       <c r="E10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>1.032</v>
+        <v>1.621</v>
       </c>
       <c r="G10">
-        <v>0.359</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.116</v>
-      </c>
-      <c r="C11">
-        <v>9.449</v>
-      </c>
-      <c r="D11">
-        <v>8.635999999999999</v>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
       </c>
       <c r="E11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>6.244</v>
+        <v>3.846</v>
       </c>
       <c r="G11">
-        <v>0.003</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.698</v>
-      </c>
-      <c r="C12">
-        <v>0.695</v>
-      </c>
-      <c r="D12">
-        <v>0.701</v>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
       </c>
       <c r="E12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F12">
         <v>0.017</v>
@@ -3701,92 +5690,92 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.712</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>0.357</v>
+      </c>
+      <c r="G13">
         <v>0.7</v>
-      </c>
-      <c r="D13">
-        <v>0.726</v>
-      </c>
-      <c r="E13">
-        <v>158</v>
-      </c>
-      <c r="F13">
-        <v>0.349</v>
-      </c>
-      <c r="G13">
-        <v>0.706</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.695</v>
-      </c>
-      <c r="C14">
-        <v>0.717</v>
-      </c>
-      <c r="D14">
-        <v>0.749</v>
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>249</v>
       </c>
       <c r="E14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>0.959</v>
+        <v>0.895</v>
       </c>
       <c r="G14">
-        <v>0.386</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.708</v>
-      </c>
-      <c r="C15">
-        <v>0.714</v>
-      </c>
-      <c r="D15">
-        <v>0.76</v>
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
       </c>
       <c r="E15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>0.734</v>
+        <v>0.598</v>
       </c>
       <c r="G15">
-        <v>0.482</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.736</v>
-      </c>
-      <c r="C16">
-        <v>0.703</v>
-      </c>
-      <c r="D16">
-        <v>0.725</v>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
       </c>
       <c r="E16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="F16">
-        <v>0.928</v>
+        <v>0.958</v>
       </c>
       <c r="G16">
-        <v>0.398</v>
+        <v>0.385</v>
       </c>
     </row>
   </sheetData>
@@ -3832,390 +5821,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.78</v>
-      </c>
-      <c r="C2">
-        <v>56.135</v>
-      </c>
-      <c r="D2">
-        <v>50.395</v>
-      </c>
-      <c r="E2">
-        <v>53</v>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>2.247</v>
+        <v>2.004</v>
       </c>
       <c r="H2">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.667</v>
-      </c>
-      <c r="C3">
-        <v>55.084</v>
-      </c>
-      <c r="D3">
-        <v>50.353</v>
-      </c>
-      <c r="E3">
-        <v>57.5</v>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" t="s">
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>2.742</v>
+        <v>1.793</v>
       </c>
       <c r="H3">
-        <v>0.045</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>60.378</v>
-      </c>
-      <c r="C4">
-        <v>54.785</v>
-      </c>
-      <c r="D4">
-        <v>52</v>
-      </c>
-      <c r="E4">
-        <v>55.5</v>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>299</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>3.082</v>
+        <v>2.122</v>
       </c>
       <c r="H4">
-        <v>0.029</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.5</v>
-      </c>
-      <c r="C5">
-        <v>55.118</v>
-      </c>
-      <c r="D5">
-        <v>53.037</v>
-      </c>
-      <c r="E5">
-        <v>58</v>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>1.723</v>
+        <v>1.968</v>
       </c>
       <c r="H5">
-        <v>0.165</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>63.765</v>
-      </c>
-      <c r="C6">
-        <v>53.514</v>
-      </c>
-      <c r="D6">
-        <v>52.76</v>
-      </c>
-      <c r="E6">
-        <v>76</v>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>8.916</v>
+        <v>4.725</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.439</v>
-      </c>
-      <c r="C7">
-        <v>8.573</v>
-      </c>
-      <c r="D7">
-        <v>10.605</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>301</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>1.778</v>
+        <v>1.618</v>
       </c>
       <c r="H7">
-        <v>0.153</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.538</v>
-      </c>
-      <c r="C8">
-        <v>9.205</v>
-      </c>
-      <c r="D8">
-        <v>9.971</v>
-      </c>
-      <c r="E8">
-        <v>9.5</v>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>1.49</v>
+        <v>1.048</v>
       </c>
       <c r="H8">
-        <v>0.219</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.784</v>
-      </c>
-      <c r="C9">
-        <v>9.038</v>
-      </c>
-      <c r="D9">
-        <v>10.323</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>2.994</v>
+        <v>2.201</v>
       </c>
       <c r="H9">
-        <v>0.033</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.618</v>
-      </c>
-      <c r="C10">
-        <v>8.526</v>
-      </c>
-      <c r="D10">
-        <v>9.667</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>301</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>0.779</v>
+        <v>1.651</v>
       </c>
       <c r="H10">
-        <v>0.508</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>5.588</v>
-      </c>
-      <c r="C11">
-        <v>9.305999999999999</v>
-      </c>
-      <c r="D11">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" t="s">
+        <v>304</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>5.565</v>
+        <v>2.812</v>
       </c>
       <c r="H11">
-        <v>0.001</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.704</v>
-      </c>
-      <c r="D12">
-        <v>0.68</v>
-      </c>
-      <c r="E12">
-        <v>0.774</v>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>305</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.533</v>
+        <v>0.569</v>
       </c>
       <c r="H12">
-        <v>0.66</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.721</v>
-      </c>
-      <c r="C13">
-        <v>0.706</v>
-      </c>
-      <c r="D13">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.796</v>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" t="s">
+        <v>306</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.673</v>
+        <v>0.734</v>
       </c>
       <c r="H13">
-        <v>0.57</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.699</v>
-      </c>
-      <c r="C14">
-        <v>0.718</v>
-      </c>
-      <c r="D14">
-        <v>0.709</v>
-      </c>
-      <c r="E14">
-        <v>0.822</v>
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.626</v>
+        <v>0.78</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.71</v>
-      </c>
-      <c r="C15">
-        <v>0.712</v>
-      </c>
-      <c r="D15">
-        <v>0.729</v>
-      </c>
-      <c r="E15">
-        <v>0.793</v>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" t="s">
+        <v>308</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>0.357</v>
+        <v>0.445</v>
       </c>
       <c r="H15">
-        <v>0.784</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.729</v>
-      </c>
-      <c r="C16">
-        <v>0.707</v>
-      </c>
-      <c r="D16">
-        <v>0.721</v>
-      </c>
-      <c r="E16">
-        <v>0.729</v>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" t="s">
+        <v>309</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>0.254</v>
+        <v>0.266</v>
       </c>
       <c r="H16">
-        <v>0.858</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -4261,205 +6250,205 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.222</v>
-      </c>
-      <c r="C2">
-        <v>56.264</v>
-      </c>
-      <c r="D2">
-        <v>52.204</v>
-      </c>
-      <c r="E2">
-        <v>49.667</v>
+      <c r="B2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>1.367</v>
+        <v>2.062</v>
       </c>
       <c r="H2">
-        <v>0.255</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>58.12</v>
-      </c>
-      <c r="C3">
-        <v>55.729</v>
-      </c>
-      <c r="D3">
-        <v>51.844</v>
-      </c>
-      <c r="E3">
-        <v>54.667</v>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>354</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>1.554</v>
+        <v>1.953</v>
       </c>
       <c r="H3">
-        <v>0.203</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>59.87</v>
-      </c>
-      <c r="C4">
-        <v>55.593</v>
-      </c>
-      <c r="D4">
-        <v>53.357</v>
-      </c>
-      <c r="E4">
-        <v>54.667</v>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>355</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>1.454</v>
+        <v>1.692</v>
       </c>
       <c r="H4">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.5</v>
-      </c>
-      <c r="C5">
-        <v>56.103</v>
-      </c>
-      <c r="D5">
-        <v>53.658</v>
-      </c>
-      <c r="E5">
-        <v>51.667</v>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>356</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>1.204</v>
+        <v>1.402</v>
       </c>
       <c r="H5">
-        <v>0.311</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>60.4</v>
-      </c>
-      <c r="C6">
-        <v>56.178</v>
-      </c>
-      <c r="D6">
-        <v>54.056</v>
-      </c>
-      <c r="E6">
-        <v>53.667</v>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>357</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>1.296</v>
+        <v>1.493</v>
       </c>
       <c r="H6">
-        <v>0.279</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>8.444000000000001</v>
-      </c>
-      <c r="C7">
-        <v>8.659000000000001</v>
-      </c>
-      <c r="D7">
-        <v>9.795999999999999</v>
-      </c>
-      <c r="E7">
-        <v>11.333</v>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" t="s">
+        <v>358</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>0.914</v>
+        <v>1.703</v>
       </c>
       <c r="H7">
-        <v>0.436</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.92</v>
-      </c>
-      <c r="C8">
-        <v>8.859</v>
-      </c>
-      <c r="D8">
-        <v>9.733000000000001</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" t="s">
+        <v>359</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>0.675</v>
+        <v>1.363</v>
       </c>
       <c r="H8">
-        <v>0.5679999999999999</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.522</v>
-      </c>
-      <c r="C9">
-        <v>8.84</v>
-      </c>
-      <c r="D9">
-        <v>9.786</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>360</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>2.09</v>
+        <v>2.081</v>
       </c>
       <c r="H9">
         <v>0.104</v>
@@ -4469,182 +6458,182 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.65</v>
-      </c>
-      <c r="C10">
-        <v>8.359</v>
-      </c>
-      <c r="D10">
-        <v>9.105</v>
-      </c>
-      <c r="E10">
-        <v>11.667</v>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
+        <v>361</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>0.732</v>
+        <v>1.023</v>
       </c>
       <c r="H10">
-        <v>0.535</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>6.6</v>
-      </c>
-      <c r="C11">
-        <v>8.561999999999999</v>
-      </c>
-      <c r="D11">
-        <v>8.528</v>
-      </c>
-      <c r="E11">
-        <v>10.333</v>
+      <c r="B11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" t="s">
+        <v>362</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>0.96</v>
+        <v>0.862</v>
       </c>
       <c r="H11">
-        <v>0.414</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.71</v>
-      </c>
-      <c r="C12">
-        <v>0.696</v>
-      </c>
-      <c r="D12">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.786</v>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" t="s">
+        <v>363</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.664</v>
+        <v>0.614</v>
       </c>
       <c r="H12">
-        <v>0.575</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.739</v>
-      </c>
-      <c r="C13">
-        <v>0.703</v>
-      </c>
-      <c r="D13">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.829</v>
+      <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13" t="s">
+        <v>364</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>1.695</v>
+        <v>1.672</v>
       </c>
       <c r="H13">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.729</v>
-      </c>
-      <c r="C14">
-        <v>0.708</v>
-      </c>
-      <c r="D14">
-        <v>0.703</v>
-      </c>
-      <c r="E14">
-        <v>0.844</v>
+      <c r="B14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" t="s">
+        <v>365</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>1.169</v>
+        <v>1.179</v>
       </c>
       <c r="H14">
-        <v>0.324</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.735</v>
-      </c>
-      <c r="C15">
-        <v>0.703</v>
-      </c>
-      <c r="D15">
-        <v>0.723</v>
-      </c>
-      <c r="E15">
-        <v>0.837</v>
+      <c r="B15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
+        <v>366</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>1.242</v>
+        <v>1.319</v>
       </c>
       <c r="H15">
-        <v>0.297</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.753</v>
-      </c>
-      <c r="C16">
-        <v>0.706</v>
-      </c>
-      <c r="D16">
-        <v>0.703</v>
-      </c>
-      <c r="E16">
-        <v>0.853</v>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" t="s">
+        <v>367</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>2.046</v>
+        <v>2.22</v>
       </c>
       <c r="H16">
-        <v>0.111</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4690,390 +6679,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>59.632</v>
-      </c>
-      <c r="C2">
-        <v>57.808</v>
-      </c>
-      <c r="D2">
-        <v>51.301</v>
-      </c>
-      <c r="E2">
-        <v>49.4</v>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>413</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>4.736</v>
+        <v>4.403</v>
       </c>
       <c r="H2">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>59.889</v>
-      </c>
-      <c r="C3">
-        <v>57.471</v>
-      </c>
-      <c r="D3">
-        <v>51.773</v>
-      </c>
-      <c r="E3">
-        <v>47.333</v>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>4.173</v>
+        <v>2.458</v>
       </c>
       <c r="H3">
-        <v>0.007</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>61.25</v>
-      </c>
-      <c r="C4">
-        <v>57.215</v>
-      </c>
-      <c r="D4">
-        <v>52.919</v>
-      </c>
-      <c r="E4">
-        <v>50.833</v>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>415</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>2.989</v>
+        <v>1.791</v>
       </c>
       <c r="H4">
-        <v>0.033</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.214</v>
-      </c>
-      <c r="C5">
-        <v>56.969</v>
-      </c>
-      <c r="D5">
-        <v>53.545</v>
-      </c>
-      <c r="E5">
-        <v>56.6</v>
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>416</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>1.273</v>
+        <v>1.498</v>
       </c>
       <c r="H5">
-        <v>0.286</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>62.071</v>
-      </c>
-      <c r="C6">
-        <v>57.148</v>
-      </c>
-      <c r="D6">
-        <v>53.83</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
+      <c r="B6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" t="s">
+        <v>417</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>2.229</v>
+        <v>2.236</v>
       </c>
       <c r="H6">
-        <v>0.08799999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.263</v>
-      </c>
-      <c r="C7">
-        <v>8.096</v>
-      </c>
-      <c r="D7">
-        <v>10.205</v>
-      </c>
-      <c r="E7">
-        <v>11.2</v>
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" t="s">
+        <v>418</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>3.57</v>
+        <v>3.532</v>
       </c>
       <c r="H7">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.5</v>
-      </c>
-      <c r="C8">
-        <v>8.234999999999999</v>
-      </c>
-      <c r="D8">
-        <v>9.757999999999999</v>
-      </c>
-      <c r="E8">
-        <v>12.833</v>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" t="s">
+        <v>419</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>2.634</v>
+        <v>2.095</v>
       </c>
       <c r="H8">
-        <v>0.052</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>5.938</v>
-      </c>
-      <c r="C9">
-        <v>8.169</v>
-      </c>
-      <c r="D9">
-        <v>9.887</v>
-      </c>
-      <c r="E9">
-        <v>10.333</v>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="s">
+        <v>420</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>3.223</v>
+        <v>1.981</v>
       </c>
       <c r="H9">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.357</v>
-      </c>
-      <c r="C10">
-        <v>8.292</v>
-      </c>
-      <c r="D10">
-        <v>8.964</v>
-      </c>
-      <c r="E10">
-        <v>10.2</v>
+      <c r="B10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E10" t="s">
+        <v>421</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>0.576</v>
+        <v>0.922</v>
       </c>
       <c r="H10">
-        <v>0.632</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>5.857</v>
-      </c>
-      <c r="C11">
-        <v>8.148</v>
-      </c>
-      <c r="D11">
-        <v>8.887</v>
-      </c>
-      <c r="E11">
-        <v>11.25</v>
+      <c r="B11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" t="s">
+        <v>422</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="H11">
-        <v>0.16</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.738</v>
-      </c>
-      <c r="C12">
-        <v>0.695</v>
-      </c>
-      <c r="D12">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.6919999999999999</v>
+      <c r="B12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>423</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.6929999999999999</v>
+        <v>0.764</v>
       </c>
       <c r="H12">
-        <v>0.5580000000000001</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.766</v>
-      </c>
-      <c r="C13">
-        <v>0.697</v>
-      </c>
-      <c r="D13">
-        <v>0.698</v>
-      </c>
-      <c r="E13">
-        <v>0.735</v>
+      <c r="B13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" t="s">
+        <v>424</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>1.478</v>
+        <v>1.634</v>
       </c>
       <c r="H13">
-        <v>0.223</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.75</v>
-      </c>
-      <c r="C14">
-        <v>0.699</v>
-      </c>
-      <c r="D14">
-        <v>0.712</v>
-      </c>
-      <c r="E14">
-        <v>0.779</v>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>425</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>1.148</v>
+        <v>1.18</v>
       </c>
       <c r="H14">
-        <v>0.332</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.758</v>
-      </c>
-      <c r="C15">
-        <v>0.695</v>
-      </c>
-      <c r="D15">
-        <v>0.727</v>
-      </c>
-      <c r="E15">
-        <v>0.757</v>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>426</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>1.306</v>
+        <v>1.321</v>
       </c>
       <c r="H15">
-        <v>0.275</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.775</v>
-      </c>
-      <c r="C16">
-        <v>0.699</v>
-      </c>
-      <c r="D16">
-        <v>0.716</v>
-      </c>
-      <c r="E16">
-        <v>0.764</v>
+      <c r="B16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" t="s">
+        <v>427</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>1.594</v>
+        <v>1.626</v>
       </c>
       <c r="H16">
-        <v>0.194</v>
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
@@ -5119,381 +7108,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>58.718</v>
-      </c>
-      <c r="C2">
-        <v>54.432</v>
-      </c>
-      <c r="D2">
-        <v>52.324</v>
-      </c>
-      <c r="E2">
-        <v>52.5</v>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
       </c>
       <c r="F2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>1.737</v>
+        <v>1.291</v>
       </c>
       <c r="H2">
-        <v>0.161</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>59.639</v>
-      </c>
-      <c r="C3">
-        <v>53.852</v>
-      </c>
-      <c r="D3">
-        <v>52.719</v>
-      </c>
-      <c r="E3">
-        <v>57</v>
+      <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
       </c>
       <c r="F3">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>2.277</v>
+        <v>0.503</v>
       </c>
       <c r="H3">
-        <v>0.082</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>60.686</v>
-      </c>
-      <c r="C4">
-        <v>53.953</v>
-      </c>
-      <c r="D4">
-        <v>54.407</v>
-      </c>
-      <c r="E4">
-        <v>52</v>
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" t="s">
+        <v>474</v>
       </c>
       <c r="F4">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G4">
-        <v>2.807</v>
+        <v>2.091</v>
       </c>
       <c r="H4">
-        <v>0.042</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>59.424</v>
-      </c>
-      <c r="C5">
-        <v>54.84</v>
-      </c>
-      <c r="D5">
-        <v>54.5</v>
-      </c>
-      <c r="E5">
-        <v>49</v>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>475</v>
       </c>
       <c r="F5">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>1.421</v>
+        <v>1.815</v>
       </c>
       <c r="H5">
-        <v>0.239</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>63.273</v>
-      </c>
-      <c r="C6">
-        <v>53.355</v>
-      </c>
-      <c r="D6">
-        <v>55.348</v>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" t="s">
+        <v>476</v>
       </c>
       <c r="F6">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>9.225</v>
+        <v>4.804</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.641</v>
-      </c>
-      <c r="C7">
-        <v>9.189</v>
-      </c>
-      <c r="D7">
-        <v>9.941000000000001</v>
-      </c>
-      <c r="E7">
-        <v>10.5</v>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" t="s">
+        <v>477</v>
       </c>
       <c r="F7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G7">
-        <v>1.534</v>
+        <v>1.098</v>
       </c>
       <c r="H7">
-        <v>0.208</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.056</v>
-      </c>
-      <c r="C8">
-        <v>9.545</v>
-      </c>
-      <c r="D8">
-        <v>9.593999999999999</v>
-      </c>
-      <c r="E8">
-        <v>7.5</v>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" t="s">
+        <v>478</v>
       </c>
       <c r="F8">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>2.258</v>
+        <v>0.642</v>
       </c>
       <c r="H8">
-        <v>0.08400000000000001</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.229</v>
-      </c>
-      <c r="C9">
-        <v>9.419</v>
-      </c>
-      <c r="D9">
-        <v>9.741</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" t="s">
+        <v>479</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>3.871</v>
+        <v>2.73</v>
       </c>
       <c r="H9">
-        <v>0.011</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.424</v>
-      </c>
-      <c r="C10">
-        <v>8.888999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.667</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E10" t="s">
+        <v>480</v>
       </c>
       <c r="F10">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G10">
-        <v>0.874</v>
+        <v>1.523</v>
       </c>
       <c r="H10">
-        <v>0.456</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>5.788</v>
-      </c>
-      <c r="C11">
-        <v>9.368</v>
-      </c>
-      <c r="D11">
-        <v>8.348000000000001</v>
+      <c r="B11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11" t="s">
+        <v>481</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G11">
-        <v>5.932</v>
+        <v>3.466</v>
       </c>
       <c r="H11">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.714</v>
-      </c>
-      <c r="C12">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.709</v>
-      </c>
-      <c r="E12">
-        <v>0.609</v>
+      <c r="B12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E12" t="s">
+        <v>482</v>
       </c>
       <c r="F12">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>0.769</v>
+        <v>0.706</v>
       </c>
       <c r="H12">
-        <v>0.513</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.724</v>
-      </c>
-      <c r="C13">
-        <v>0.697</v>
-      </c>
-      <c r="D13">
-        <v>0.721</v>
-      </c>
-      <c r="E13">
-        <v>0.61</v>
+      <c r="B13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" t="s">
+        <v>483</v>
       </c>
       <c r="F13">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="G13">
-        <v>0.82</v>
+        <v>0.764</v>
       </c>
       <c r="H13">
-        <v>0.485</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.718</v>
-      </c>
-      <c r="C14">
-        <v>0.705</v>
-      </c>
-      <c r="D14">
-        <v>0.73</v>
-      </c>
-      <c r="E14">
-        <v>0.728</v>
+      <c r="B14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E14" t="s">
+        <v>484</v>
       </c>
       <c r="F14">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>0.252</v>
+        <v>0.241</v>
       </c>
       <c r="H14">
-        <v>0.86</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.732</v>
-      </c>
-      <c r="C15">
-        <v>0.699</v>
-      </c>
-      <c r="D15">
-        <v>0.749</v>
-      </c>
-      <c r="E15">
-        <v>0.803</v>
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" t="s">
+        <v>485</v>
       </c>
       <c r="F15">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="G15">
-        <v>1.25</v>
+        <v>1.128</v>
       </c>
       <c r="H15">
-        <v>0.294</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.751</v>
-      </c>
-      <c r="C16">
-        <v>0.696</v>
-      </c>
-      <c r="D16">
-        <v>0.729</v>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" t="s">
+        <v>486</v>
       </c>
       <c r="F16">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>2.384</v>
+        <v>1.654</v>
       </c>
       <c r="H16">
-        <v>0.096</v>
+        <v>0.178</v>
       </c>
     </row>
   </sheetData>
